--- a/a.xlsx
+++ b/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\Documents\qp\fruit_impedance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9AA9D-D19B-495C-9AAF-7074F1BB46B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E68D5-1436-4627-86FC-38E847EF761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2700" windowWidth="21510" windowHeight="11295" xr2:uid="{A64F9C07-BD29-4837-878C-D337D1A3C421}"/>
+    <workbookView xWindow="2055" yWindow="4065" windowWidth="21510" windowHeight="10620" xr2:uid="{A64F9C07-BD29-4837-878C-D337D1A3C421}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>Magnitude</t>
   </si>
@@ -203,15 +203,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Impedance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>initial</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1502,6 +1494,655 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6978-4A87-AAB6-1209A45751B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 days</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$209:$A$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$209:$B$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>253375.404153774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248680.77949420601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243719.53020230899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239466.79826409699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235985.53767206401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232922.26129164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>228923.32367164901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225265.10300976399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221178.397565972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>217972.458082789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214816.983349663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211858.04348399001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208402.235338386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205743.732436191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202634.11077542399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200018.29749006499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>197121.175054277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>194496.991992956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191956.352362634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>189592.67455351501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187307.68300238001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184935.268809578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>182598.60490160901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180288.76899410601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178070.585702999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175921.14882352599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174073.89885268899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>172026.63792285501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>169926.007755403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>167896.41018179001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>165986.843325097</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164209.99190557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>162308.43389235201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>160607.35438042399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159099.881515716</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>157424.32397448301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>155872.241414836</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>154052.890597733</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152351.67947962999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>151027.52820900001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>149501.43003146601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>148124.23808722501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>146722.545509711</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>145313.29167509099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143739.419034369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>142537.85701001401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141171.25261451799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>139777.020402906</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138676.09426617</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>137208.142234514</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>135975.29796037599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>134785.94381144701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>133685.59733561799</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132535.94749314501</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>131349.47478477901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>130219.486337008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>129073.108947182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127982.586682234</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>126840.338877733</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>125882.872081628</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>124766.236442947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123881.14291678301</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>122865.43032679</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>121942.109807118</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>120994.16945888899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>119895.08873646399</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>119023.54158736599</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>118173.36274828399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>117115.259028341</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>116306.116842228</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>115454.66805573</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>114698.107173141</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>113748.94046365299</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>112883.141789427</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>112084.758299553</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>111426.230130123</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>110463.798715486</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>109730.684436287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>108952.331884511</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>108099.654669158</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>107368.969159862</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>106886.24429013301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>105950.08996488201</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>105282.476593568</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>104737.422774776</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>103820.66426791</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103152.882269069</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>102486.268544002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101874.098566922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101185.897457233</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100583.234667564</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>99851.610649757597</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99228.279738173806</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98564.902427302906</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97942.216380804704</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97372.640066984997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96744.795302743601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96179.887214114206</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95583.126712650104</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95033.585426540594</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>94433.856875722093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3654-4C21-8583-CBA5356A46AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1812,15 +2453,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Impedance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>initial</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3111,6 +3744,655 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C37F-46CF-9DA5-7F5108144BF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 days</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$209:$I$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$209:$J$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>337650.44875452301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330770.84361241199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323593.55500702001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317745.08183260099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313473.59519114898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309582.38870526297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304422.19778508198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299201.20787858899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>293794.76656890102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>289058.483999549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284949.578602508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280335.25018444302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>276384.19263036997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>272056.86394508602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>268369.83216984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264570.71717650298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260804.39696965701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256194.78375733699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253719.10901539601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250664.909015843</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>247558.313098832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>244705.64688178001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241023.023944024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>238037.886266013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235273.89484336699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>232345.49113090301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>229921.22742969499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>226952.90327120901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>224025.870660421</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>221316.884794679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>218961.69428737299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>216594.061901654</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214026.722917512</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211575.333320498</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>209416.63406046401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>207413.841624919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>204945.80748749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>202795.223390881</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200456.93019820601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>198159.66723229599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>196767.82082679999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>194642.58856184201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>192092.332899231</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>190375.14115193201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>188908.77467428599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>186829.26640986599</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>185617.24786264301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>183491.61578100701</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>182108.24501512299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180298.42606685299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>178713.63908536601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>176774.02290614601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>175109.86165587901</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173791.57831949601</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>172101.63397963601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>170815.33108299301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>169406.99902018701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>167998.60408310601</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>166301.891620849</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>164845.58294174599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>163606.19716023499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>162307.11556389299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>161003.27439589601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159620.17714688301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>158231.73641747999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>157423.531131072</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>155826.46141002601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>154602.92600434399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>153576.28576335</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152103.85480790999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>151108.56236655699</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>149856.92194029401</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>148782.374538103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>147568.28002516099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>146665.62350540599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>145426.18466783801</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>144344.41949043301</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>143404.17114243199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>142323.87921420901</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>141479.01552166801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>140395.89628147299</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>139240.13523360199</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>138339.07378494399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>137458.92097241001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>136445.659011301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>135489.15062778501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>134650.49422304999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>133676.259236207</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>132865.89059277301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>131939.186030465</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>131087.59901920799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>130176.637064852</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>129435.95912466499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>128494.493739988</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>127661.289479578</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>126851.967506898</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>126196.735195448</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>125399.36240896401</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>124497.535007336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>123871.274062012</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>122982.017764202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAA6-43C0-AAD4-D60486D82B55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7013,10 +8295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052D5528-D279-4180-98DC-2932ED2FA6FF}">
-  <dimension ref="A1:O206"/>
+  <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14257,7 +15539,7 @@
         <v>8727.8389650000008</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>27400</v>
       </c>
@@ -14295,7 +15577,7 @@
         <v>8766.5295299999998</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>27600</v>
       </c>
@@ -14333,7 +15615,7 @@
         <v>8817.5781819999993</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>27800</v>
       </c>
@@ -14371,7 +15653,7 @@
         <v>8881.6845809999995</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>28000</v>
       </c>
@@ -14409,7 +15691,7 @@
         <v>8932.9815849999995</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>28200</v>
       </c>
@@ -14447,7 +15729,7 @@
         <v>9000.3587709999993</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>28400</v>
       </c>
@@ -14485,7 +15767,7 @@
         <v>9042.9504589999997</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>28600</v>
       </c>
@@ -14523,7 +15805,7 @@
         <v>9115.2764630000001</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>28800</v>
       </c>
@@ -14561,7 +15843,7 @@
         <v>9153.7981189999991</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>29000</v>
       </c>
@@ -14599,7 +15881,7 @@
         <v>9218.5370309999998</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>29200</v>
       </c>
@@ -14637,7 +15919,7 @@
         <v>9262.2526959999996</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>29400</v>
       </c>
@@ -14675,7 +15957,7 @@
         <v>9323.7471010000008</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>29600</v>
       </c>
@@ -14713,7 +15995,7 @@
         <v>9374.2166070000003</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>29800</v>
       </c>
@@ -14751,7 +16033,7 @@
         <v>9423.9296470000008</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>30000</v>
       </c>
@@ -14787,6 +16069,3888 @@
       </c>
       <c r="N206">
         <v>9482.8080759999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>44701</v>
+      </c>
+      <c r="I208" t="s">
+        <v>5</v>
+      </c>
+      <c r="J208" t="s">
+        <v>4</v>
+      </c>
+      <c r="K208" t="s">
+        <v>3</v>
+      </c>
+      <c r="L208" t="s">
+        <v>2</v>
+      </c>
+      <c r="M208" t="s">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
+        <v>0</v>
+      </c>
+      <c r="O208" s="1">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>10000</v>
+      </c>
+      <c r="B209">
+        <v>253375.404153774</v>
+      </c>
+      <c r="C209">
+        <v>-85.968887405708401</v>
+      </c>
+      <c r="D209">
+        <v>-3752</v>
+      </c>
+      <c r="E209">
+        <v>-1066</v>
+      </c>
+      <c r="F209">
+        <v>3900.49484040166</v>
+      </c>
+      <c r="I209">
+        <v>10000</v>
+      </c>
+      <c r="J209">
+        <v>337650.44875452301</v>
+      </c>
+      <c r="K209">
+        <v>-86.987689721996603</v>
+      </c>
+      <c r="L209">
+        <v>-2836</v>
+      </c>
+      <c r="M209">
+        <v>-724</v>
+      </c>
+      <c r="N209">
+        <v>2926.9560980650199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>10200</v>
+      </c>
+      <c r="B210">
+        <v>248680.77949420601</v>
+      </c>
+      <c r="C210">
+        <v>-86.030688667158202</v>
+      </c>
+      <c r="D210">
+        <v>-3824</v>
+      </c>
+      <c r="E210">
+        <v>-1082</v>
+      </c>
+      <c r="F210">
+        <v>3974.1288353549899</v>
+      </c>
+      <c r="I210">
+        <v>10200</v>
+      </c>
+      <c r="J210">
+        <v>330770.84361241199</v>
+      </c>
+      <c r="K210">
+        <v>-86.988842810847501</v>
+      </c>
+      <c r="L210">
+        <v>-2895</v>
+      </c>
+      <c r="M210">
+        <v>-739</v>
+      </c>
+      <c r="N210">
+        <v>2987.83299399414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>10400</v>
+      </c>
+      <c r="B211">
+        <v>243719.53020230899</v>
+      </c>
+      <c r="C211">
+        <v>-85.781277492818703</v>
+      </c>
+      <c r="D211">
+        <v>-3897</v>
+      </c>
+      <c r="E211">
+        <v>-1121</v>
+      </c>
+      <c r="F211">
+        <v>4055.0277434315999</v>
+      </c>
+      <c r="I211">
+        <v>10400</v>
+      </c>
+      <c r="J211">
+        <v>323593.55500702001</v>
+      </c>
+      <c r="K211">
+        <v>-86.822094184954196</v>
+      </c>
+      <c r="L211">
+        <v>-2957</v>
+      </c>
+      <c r="M211">
+        <v>-764</v>
+      </c>
+      <c r="N211">
+        <v>3054.1029779626001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>10600</v>
+      </c>
+      <c r="B212">
+        <v>239466.79826409699</v>
+      </c>
+      <c r="C212">
+        <v>-85.620978350175903</v>
+      </c>
+      <c r="D212">
+        <v>-3963</v>
+      </c>
+      <c r="E212">
+        <v>-1152</v>
+      </c>
+      <c r="F212">
+        <v>4127.0416765523496</v>
+      </c>
+      <c r="I212">
+        <v>10600</v>
+      </c>
+      <c r="J212">
+        <v>317745.08183260099</v>
+      </c>
+      <c r="K212">
+        <v>-86.499599647132598</v>
+      </c>
+      <c r="L212">
+        <v>-3007</v>
+      </c>
+      <c r="M212">
+        <v>-795</v>
+      </c>
+      <c r="N212">
+        <v>3110.3173471528598</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>10800</v>
+      </c>
+      <c r="B213">
+        <v>235985.53767206401</v>
+      </c>
+      <c r="C213">
+        <v>-85.307201023966101</v>
+      </c>
+      <c r="D213">
+        <v>-4015</v>
+      </c>
+      <c r="E213">
+        <v>-1191</v>
+      </c>
+      <c r="F213">
+        <v>4187.9238292977598</v>
+      </c>
+      <c r="I213">
+        <v>10800</v>
+      </c>
+      <c r="J213">
+        <v>313473.59519114898</v>
+      </c>
+      <c r="K213">
+        <v>-86.289578641793796</v>
+      </c>
+      <c r="L213">
+        <v>-3045</v>
+      </c>
+      <c r="M213">
+        <v>-817</v>
+      </c>
+      <c r="N213">
+        <v>3152.6994782249699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>11000</v>
+      </c>
+      <c r="B214">
+        <v>232922.26129164</v>
+      </c>
+      <c r="C214">
+        <v>-85.316545373535703</v>
+      </c>
+      <c r="D214">
+        <v>-4068</v>
+      </c>
+      <c r="E214">
+        <v>-1206</v>
+      </c>
+      <c r="F214">
+        <v>4243.0012962524497</v>
+      </c>
+      <c r="I214">
+        <v>11000</v>
+      </c>
+      <c r="J214">
+        <v>309582.38870526297</v>
+      </c>
+      <c r="K214">
+        <v>-86.201646233928003</v>
+      </c>
+      <c r="L214">
+        <v>-3082</v>
+      </c>
+      <c r="M214">
+        <v>-832</v>
+      </c>
+      <c r="N214">
+        <v>3192.3264244121401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>11200</v>
+      </c>
+      <c r="B215">
+        <v>228923.32367164901</v>
+      </c>
+      <c r="C215">
+        <v>-85.220549527609094</v>
+      </c>
+      <c r="D215">
+        <v>-4137</v>
+      </c>
+      <c r="E215">
+        <v>-1234</v>
+      </c>
+      <c r="F215">
+        <v>4317.1199890667804</v>
+      </c>
+      <c r="I215">
+        <v>11200</v>
+      </c>
+      <c r="J215">
+        <v>304422.19778508198</v>
+      </c>
+      <c r="K215">
+        <v>-86.185248672385796</v>
+      </c>
+      <c r="L215">
+        <v>-3134</v>
+      </c>
+      <c r="M215">
+        <v>-847</v>
+      </c>
+      <c r="N215">
+        <v>3246.43881815136</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>11400</v>
+      </c>
+      <c r="B216">
+        <v>225265.10300976399</v>
+      </c>
+      <c r="C216">
+        <v>-85.166569817539298</v>
+      </c>
+      <c r="D216">
+        <v>-4203</v>
+      </c>
+      <c r="E216">
+        <v>-1258</v>
+      </c>
+      <c r="F216">
+        <v>4387.2283961517196</v>
+      </c>
+      <c r="I216">
+        <v>11400</v>
+      </c>
+      <c r="J216">
+        <v>299201.20787858899</v>
+      </c>
+      <c r="K216">
+        <v>-86.073454428466803</v>
+      </c>
+      <c r="L216">
+        <v>-3187</v>
+      </c>
+      <c r="M216">
+        <v>-868</v>
+      </c>
+      <c r="N216">
+        <v>3303.0884032977401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>11600</v>
+      </c>
+      <c r="B217">
+        <v>221178.397565972</v>
+      </c>
+      <c r="C217">
+        <v>-84.915359075800396</v>
+      </c>
+      <c r="D217">
+        <v>-4275</v>
+      </c>
+      <c r="E217">
+        <v>-1300</v>
+      </c>
+      <c r="F217">
+        <v>4468.2910603495802</v>
+      </c>
+      <c r="I217">
+        <v>11600</v>
+      </c>
+      <c r="J217">
+        <v>293794.76656890102</v>
+      </c>
+      <c r="K217">
+        <v>-85.967032577403003</v>
+      </c>
+      <c r="L217">
+        <v>-3244</v>
+      </c>
+      <c r="M217">
+        <v>-890</v>
+      </c>
+      <c r="N217">
+        <v>3363.87217355238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>11800</v>
+      </c>
+      <c r="B218">
+        <v>217972.458082789</v>
+      </c>
+      <c r="C218">
+        <v>-84.877320788589699</v>
+      </c>
+      <c r="D218">
+        <v>-4337</v>
+      </c>
+      <c r="E218">
+        <v>-1322</v>
+      </c>
+      <c r="F218">
+        <v>4534.0106969437102</v>
+      </c>
+      <c r="I218">
+        <v>11800</v>
+      </c>
+      <c r="J218">
+        <v>289058.483999549</v>
+      </c>
+      <c r="K218">
+        <v>-85.768537779610895</v>
+      </c>
+      <c r="L218">
+        <v>-3294</v>
+      </c>
+      <c r="M218">
+        <v>-916</v>
+      </c>
+      <c r="N218">
+        <v>3418.9899093153199</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>12000</v>
+      </c>
+      <c r="B219">
+        <v>214816.983349663</v>
+      </c>
+      <c r="C219">
+        <v>-84.635245975334101</v>
+      </c>
+      <c r="D219">
+        <v>-4395</v>
+      </c>
+      <c r="E219">
+        <v>-1360</v>
+      </c>
+      <c r="F219">
+        <v>4600.6113724156303</v>
+      </c>
+      <c r="I219">
+        <v>12000</v>
+      </c>
+      <c r="J219">
+        <v>284949.578602508</v>
+      </c>
+      <c r="K219">
+        <v>-85.737817169460996</v>
+      </c>
+      <c r="L219">
+        <v>-3341</v>
+      </c>
+      <c r="M219">
+        <v>-931</v>
+      </c>
+      <c r="N219">
+        <v>3468.2909335867398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>12200</v>
+      </c>
+      <c r="B220">
+        <v>211858.04348399001</v>
+      </c>
+      <c r="C220">
+        <v>-84.660888764549597</v>
+      </c>
+      <c r="D220">
+        <v>-4457</v>
+      </c>
+      <c r="E220">
+        <v>-1377</v>
+      </c>
+      <c r="F220">
+        <v>4664.8663432085596</v>
+      </c>
+      <c r="I220">
+        <v>12200</v>
+      </c>
+      <c r="J220">
+        <v>280335.25018444302</v>
+      </c>
+      <c r="K220">
+        <v>-85.557621843963105</v>
+      </c>
+      <c r="L220">
+        <v>-3393</v>
+      </c>
+      <c r="M220">
+        <v>-957</v>
+      </c>
+      <c r="N220">
+        <v>3525.37912854774</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>12400</v>
+      </c>
+      <c r="B221">
+        <v>208402.235338386</v>
+      </c>
+      <c r="C221">
+        <v>-84.380373893426494</v>
+      </c>
+      <c r="D221">
+        <v>-4524</v>
+      </c>
+      <c r="E221">
+        <v>-1422</v>
+      </c>
+      <c r="F221">
+        <v>4742.2209986461003</v>
+      </c>
+      <c r="I221">
+        <v>12400</v>
+      </c>
+      <c r="J221">
+        <v>276384.19263036997</v>
+      </c>
+      <c r="K221">
+        <v>-85.469046283664795</v>
+      </c>
+      <c r="L221">
+        <v>-3440</v>
+      </c>
+      <c r="M221">
+        <v>-976</v>
+      </c>
+      <c r="N221">
+        <v>3575.7762793553002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>12600</v>
+      </c>
+      <c r="B222">
+        <v>205743.732436191</v>
+      </c>
+      <c r="C222">
+        <v>-84.322527879405001</v>
+      </c>
+      <c r="D222">
+        <v>-4581</v>
+      </c>
+      <c r="E222">
+        <v>-1445</v>
+      </c>
+      <c r="F222">
+        <v>4803.4972676165899</v>
+      </c>
+      <c r="I222">
+        <v>12600</v>
+      </c>
+      <c r="J222">
+        <v>272056.86394508602</v>
+      </c>
+      <c r="K222">
+        <v>-85.198744563972994</v>
+      </c>
+      <c r="L222">
+        <v>-3490</v>
+      </c>
+      <c r="M222">
+        <v>-1008</v>
+      </c>
+      <c r="N222">
+        <v>3632.6524744324201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>12800</v>
+      </c>
+      <c r="B223">
+        <v>202634.11077542399</v>
+      </c>
+      <c r="C223">
+        <v>-84.078153364892302</v>
+      </c>
+      <c r="D223">
+        <v>-4645</v>
+      </c>
+      <c r="E223">
+        <v>-1487</v>
+      </c>
+      <c r="F223">
+        <v>4877.2117034223602</v>
+      </c>
+      <c r="I223">
+        <v>12800</v>
+      </c>
+      <c r="J223">
+        <v>268369.83216984</v>
+      </c>
+      <c r="K223">
+        <v>-85.034276812148406</v>
+      </c>
+      <c r="L223">
+        <v>-3535</v>
+      </c>
+      <c r="M223">
+        <v>-1032</v>
+      </c>
+      <c r="N223">
+        <v>3682.5601149200502</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>13000</v>
+      </c>
+      <c r="B224">
+        <v>200018.29749006499</v>
+      </c>
+      <c r="C224">
+        <v>-83.973981669484104</v>
+      </c>
+      <c r="D224">
+        <v>-4703</v>
+      </c>
+      <c r="E224">
+        <v>-1515</v>
+      </c>
+      <c r="F224">
+        <v>4940.9952438754699</v>
+      </c>
+      <c r="I224">
+        <v>13000</v>
+      </c>
+      <c r="J224">
+        <v>264570.71717650298</v>
+      </c>
+      <c r="K224">
+        <v>-85.047363724887603</v>
+      </c>
+      <c r="L224">
+        <v>-3586</v>
+      </c>
+      <c r="M224">
+        <v>-1046</v>
+      </c>
+      <c r="N224">
+        <v>3735.4400008566599</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>13200</v>
+      </c>
+      <c r="B225">
+        <v>197121.175054277</v>
+      </c>
+      <c r="C225">
+        <v>-83.821029249674893</v>
+      </c>
+      <c r="D225">
+        <v>-4768</v>
+      </c>
+      <c r="E225">
+        <v>-1550</v>
+      </c>
+      <c r="F225">
+        <v>5013.6138662645299</v>
+      </c>
+      <c r="I225">
+        <v>13200</v>
+      </c>
+      <c r="J225">
+        <v>260804.39696965701</v>
+      </c>
+      <c r="K225">
+        <v>-84.844166924970096</v>
+      </c>
+      <c r="L225">
+        <v>-3634</v>
+      </c>
+      <c r="M225">
+        <v>-1074</v>
+      </c>
+      <c r="N225">
+        <v>3789.3841188245901</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>13400</v>
+      </c>
+      <c r="B226">
+        <v>194496.991992956</v>
+      </c>
+      <c r="C226">
+        <v>-83.772562063968707</v>
+      </c>
+      <c r="D226">
+        <v>-4831</v>
+      </c>
+      <c r="E226">
+        <v>-1575</v>
+      </c>
+      <c r="F226">
+        <v>5081.2583087262901</v>
+      </c>
+      <c r="I226">
+        <v>13400</v>
+      </c>
+      <c r="J226">
+        <v>256194.78375733699</v>
+      </c>
+      <c r="K226">
+        <v>-84.771732865116704</v>
+      </c>
+      <c r="L226">
+        <v>-3698</v>
+      </c>
+      <c r="M226">
+        <v>-1098</v>
+      </c>
+      <c r="N226">
+        <v>3857.5650350966198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>13600</v>
+      </c>
+      <c r="B227">
+        <v>191956.352362634</v>
+      </c>
+      <c r="C227">
+        <v>-83.489607204209506</v>
+      </c>
+      <c r="D227">
+        <v>-4887</v>
+      </c>
+      <c r="E227">
+        <v>-1620</v>
+      </c>
+      <c r="F227">
+        <v>5148.5113382413801</v>
+      </c>
+      <c r="I227">
+        <v>13600</v>
+      </c>
+      <c r="J227">
+        <v>253719.10901539601</v>
+      </c>
+      <c r="K227">
+        <v>-84.460208099142704</v>
+      </c>
+      <c r="L227">
+        <v>-3728</v>
+      </c>
+      <c r="M227">
+        <v>-1129</v>
+      </c>
+      <c r="N227">
+        <v>3895.20538611252</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>13800</v>
+      </c>
+      <c r="B228">
+        <v>189592.67455351501</v>
+      </c>
+      <c r="C228">
+        <v>-83.387637730891996</v>
+      </c>
+      <c r="D228">
+        <v>-4945</v>
+      </c>
+      <c r="E228">
+        <v>-1649</v>
+      </c>
+      <c r="F228">
+        <v>5212.6985333893999</v>
+      </c>
+      <c r="I228">
+        <v>13800</v>
+      </c>
+      <c r="J228">
+        <v>250664.909015843</v>
+      </c>
+      <c r="K228">
+        <v>-84.289404241330303</v>
+      </c>
+      <c r="L228">
+        <v>-3770</v>
+      </c>
+      <c r="M228">
+        <v>-1154</v>
+      </c>
+      <c r="N228">
+        <v>3942.6661030323098</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>14000</v>
+      </c>
+      <c r="B229">
+        <v>187307.68300238001</v>
+      </c>
+      <c r="C229">
+        <v>-83.205721781717401</v>
+      </c>
+      <c r="D229">
+        <v>-5000</v>
+      </c>
+      <c r="E229">
+        <v>-1685</v>
+      </c>
+      <c r="F229">
+        <v>5276.2889420500796</v>
+      </c>
+      <c r="I229">
+        <v>14000</v>
+      </c>
+      <c r="J229">
+        <v>247558.313098832</v>
+      </c>
+      <c r="K229">
+        <v>-84.176521212034103</v>
+      </c>
+      <c r="L229">
+        <v>-3815</v>
+      </c>
+      <c r="M229">
+        <v>-1176</v>
+      </c>
+      <c r="N229">
+        <v>3992.1424072795799</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>14200</v>
+      </c>
+      <c r="B230">
+        <v>184935.268809578</v>
+      </c>
+      <c r="C230">
+        <v>-83.167428215209199</v>
+      </c>
+      <c r="D230">
+        <v>-5063</v>
+      </c>
+      <c r="E230">
+        <v>-1710</v>
+      </c>
+      <c r="F230">
+        <v>5343.9750186541896</v>
+      </c>
+      <c r="I230">
+        <v>14200</v>
+      </c>
+      <c r="J230">
+        <v>244705.64688178001</v>
+      </c>
+      <c r="K230">
+        <v>-84.201894414502902</v>
+      </c>
+      <c r="L230">
+        <v>-3860</v>
+      </c>
+      <c r="M230">
+        <v>-1188</v>
+      </c>
+      <c r="N230">
+        <v>4038.6809727929699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>14400</v>
+      </c>
+      <c r="B231">
+        <v>182598.60490160901</v>
+      </c>
+      <c r="C231">
+        <v>-83.009610420710501</v>
+      </c>
+      <c r="D231">
+        <v>-5123</v>
+      </c>
+      <c r="E231">
+        <v>-1746</v>
+      </c>
+      <c r="F231">
+        <v>5412.36039080917</v>
+      </c>
+      <c r="I231">
+        <v>14400</v>
+      </c>
+      <c r="J231">
+        <v>241023.023944024</v>
+      </c>
+      <c r="K231">
+        <v>-84.013954677257104</v>
+      </c>
+      <c r="L231">
+        <v>-3915</v>
+      </c>
+      <c r="M231">
+        <v>-1219</v>
+      </c>
+      <c r="N231">
+        <v>4100.3885181772703</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>14600</v>
+      </c>
+      <c r="B232">
+        <v>180288.76899410601</v>
+      </c>
+      <c r="C232">
+        <v>-82.892181703167097</v>
+      </c>
+      <c r="D232">
+        <v>-5185</v>
+      </c>
+      <c r="E232">
+        <v>-1779</v>
+      </c>
+      <c r="F232">
+        <v>5481.7028376226299</v>
+      </c>
+      <c r="I232">
+        <v>14600</v>
+      </c>
+      <c r="J232">
+        <v>238037.886266013</v>
+      </c>
+      <c r="K232">
+        <v>-83.916901344323193</v>
+      </c>
+      <c r="L232">
+        <v>-3962</v>
+      </c>
+      <c r="M232">
+        <v>-1241</v>
+      </c>
+      <c r="N232">
+        <v>4151.8098463200404</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>14800</v>
+      </c>
+      <c r="B233">
+        <v>178070.585702999</v>
+      </c>
+      <c r="C233">
+        <v>-82.620854484864097</v>
+      </c>
+      <c r="D233">
+        <v>-5241</v>
+      </c>
+      <c r="E233">
+        <v>-1826</v>
+      </c>
+      <c r="F233">
+        <v>5549.9871171021696</v>
+      </c>
+      <c r="I233">
+        <v>14800</v>
+      </c>
+      <c r="J233">
+        <v>235273.89484336699</v>
+      </c>
+      <c r="K233">
+        <v>-83.710662741595698</v>
+      </c>
+      <c r="L233">
+        <v>-4004</v>
+      </c>
+      <c r="M233">
+        <v>-1270</v>
+      </c>
+      <c r="N233">
+        <v>4200.5851973266799</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>15000</v>
+      </c>
+      <c r="B234">
+        <v>175921.14882352599</v>
+      </c>
+      <c r="C234">
+        <v>-82.526977714619505</v>
+      </c>
+      <c r="D234">
+        <v>-5302</v>
+      </c>
+      <c r="E234">
+        <v>-1857</v>
+      </c>
+      <c r="F234">
+        <v>5617.7978781725496</v>
+      </c>
+      <c r="I234">
+        <v>15000</v>
+      </c>
+      <c r="J234">
+        <v>232345.49113090301</v>
+      </c>
+      <c r="K234">
+        <v>-83.512806583752806</v>
+      </c>
+      <c r="L234">
+        <v>-4050</v>
+      </c>
+      <c r="M234">
+        <v>-1300</v>
+      </c>
+      <c r="N234">
+        <v>4253.5279474807703</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>15200</v>
+      </c>
+      <c r="B235">
+        <v>174073.89885268899</v>
+      </c>
+      <c r="C235">
+        <v>-82.427569597977893</v>
+      </c>
+      <c r="D235">
+        <v>-5355</v>
+      </c>
+      <c r="E235">
+        <v>-1886</v>
+      </c>
+      <c r="F235">
+        <v>5677.4132313933296</v>
+      </c>
+      <c r="I235">
+        <v>15200</v>
+      </c>
+      <c r="J235">
+        <v>229921.22742969499</v>
+      </c>
+      <c r="K235">
+        <v>-83.438692603495397</v>
+      </c>
+      <c r="L235">
+        <v>-4091</v>
+      </c>
+      <c r="M235">
+        <v>-1319</v>
+      </c>
+      <c r="N235">
+        <v>4298.3766703256697</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>15400</v>
+      </c>
+      <c r="B236">
+        <v>172026.63792285501</v>
+      </c>
+      <c r="C236">
+        <v>-82.315926041162697</v>
+      </c>
+      <c r="D236">
+        <v>-5415</v>
+      </c>
+      <c r="E236">
+        <v>-1919</v>
+      </c>
+      <c r="F236">
+        <v>5744.9791992660903</v>
+      </c>
+      <c r="I236">
+        <v>15400</v>
+      </c>
+      <c r="J236">
+        <v>226952.90327120901</v>
+      </c>
+      <c r="K236">
+        <v>-83.331537439161195</v>
+      </c>
+      <c r="L236">
+        <v>-4142</v>
+      </c>
+      <c r="M236">
+        <v>-1344</v>
+      </c>
+      <c r="N236">
+        <v>4354.5952739606</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>15600</v>
+      </c>
+      <c r="B237">
+        <v>169926.007755403</v>
+      </c>
+      <c r="C237">
+        <v>-82.229391060583197</v>
+      </c>
+      <c r="D237">
+        <v>-5479</v>
+      </c>
+      <c r="E237">
+        <v>-1951</v>
+      </c>
+      <c r="F237">
+        <v>5815.9987964235297</v>
+      </c>
+      <c r="I237">
+        <v>15600</v>
+      </c>
+      <c r="J237">
+        <v>224025.870660421</v>
+      </c>
+      <c r="K237">
+        <v>-83.284562083555997</v>
+      </c>
+      <c r="L237">
+        <v>-4195</v>
+      </c>
+      <c r="M237">
+        <v>-1365</v>
+      </c>
+      <c r="N237">
+        <v>4411.49067776415</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>15800</v>
+      </c>
+      <c r="B238">
+        <v>167896.41018179001</v>
+      </c>
+      <c r="C238">
+        <v>-82.049344930758295</v>
+      </c>
+      <c r="D238">
+        <v>-5539</v>
+      </c>
+      <c r="E238">
+        <v>-1992</v>
+      </c>
+      <c r="F238">
+        <v>5886.3048680815</v>
+      </c>
+      <c r="I238">
+        <v>15800</v>
+      </c>
+      <c r="J238">
+        <v>221316.884794679</v>
+      </c>
+      <c r="K238">
+        <v>-83.105122210259594</v>
+      </c>
+      <c r="L238">
+        <v>-4242</v>
+      </c>
+      <c r="M238">
+        <v>-1395</v>
+      </c>
+      <c r="N238">
+        <v>4465.4886630692499</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>16000</v>
+      </c>
+      <c r="B239">
+        <v>165986.843325097</v>
+      </c>
+      <c r="C239">
+        <v>-81.915492458620804</v>
+      </c>
+      <c r="D239">
+        <v>-5598</v>
+      </c>
+      <c r="E239">
+        <v>-2028</v>
+      </c>
+      <c r="F239">
+        <v>5954.0228417432199</v>
+      </c>
+      <c r="I239">
+        <v>16000</v>
+      </c>
+      <c r="J239">
+        <v>218961.69428737299</v>
+      </c>
+      <c r="K239">
+        <v>-82.918003726095904</v>
+      </c>
+      <c r="L239">
+        <v>-4283</v>
+      </c>
+      <c r="M239">
+        <v>-1424</v>
+      </c>
+      <c r="N239">
+        <v>4513.5202447756901</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>16200</v>
+      </c>
+      <c r="B240">
+        <v>164209.99190557</v>
+      </c>
+      <c r="C240">
+        <v>-81.732562563703198</v>
+      </c>
+      <c r="D240">
+        <v>-5652</v>
+      </c>
+      <c r="E240">
+        <v>-2068</v>
+      </c>
+      <c r="F240">
+        <v>6018.4489696266401</v>
+      </c>
+      <c r="I240">
+        <v>16200</v>
+      </c>
+      <c r="J240">
+        <v>216594.061901654</v>
+      </c>
+      <c r="K240">
+        <v>-82.766633139826794</v>
+      </c>
+      <c r="L240">
+        <v>-4326</v>
+      </c>
+      <c r="M240">
+        <v>-1451</v>
+      </c>
+      <c r="N240">
+        <v>4562.8584242774796</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>16400</v>
+      </c>
+      <c r="B241">
+        <v>162308.43389235201</v>
+      </c>
+      <c r="C241">
+        <v>-81.644644386428993</v>
+      </c>
+      <c r="D241">
+        <v>-5715</v>
+      </c>
+      <c r="E241">
+        <v>-2101</v>
+      </c>
+      <c r="F241">
+        <v>6088.9593527958496</v>
+      </c>
+      <c r="I241">
+        <v>16400</v>
+      </c>
+      <c r="J241">
+        <v>214026.722917512</v>
+      </c>
+      <c r="K241">
+        <v>-82.654113229015493</v>
+      </c>
+      <c r="L241">
+        <v>-4375</v>
+      </c>
+      <c r="M241">
+        <v>-1477</v>
+      </c>
+      <c r="N241">
+        <v>4617.5917965970102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>16600</v>
+      </c>
+      <c r="B242">
+        <v>160607.35438042399</v>
+      </c>
+      <c r="C242">
+        <v>-81.389010743594099</v>
+      </c>
+      <c r="D242">
+        <v>-5766</v>
+      </c>
+      <c r="E242">
+        <v>-2149</v>
+      </c>
+      <c r="F242">
+        <v>6153.4508204746398</v>
+      </c>
+      <c r="I242">
+        <v>16600</v>
+      </c>
+      <c r="J242">
+        <v>211575.333320498</v>
+      </c>
+      <c r="K242">
+        <v>-82.513110303669905</v>
+      </c>
+      <c r="L242">
+        <v>-4422</v>
+      </c>
+      <c r="M242">
+        <v>-1505</v>
+      </c>
+      <c r="N242">
+        <v>4671.0929127988902</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>16800</v>
+      </c>
+      <c r="B243">
+        <v>159099.881515716</v>
+      </c>
+      <c r="C243">
+        <v>-81.451620751221498</v>
+      </c>
+      <c r="D243">
+        <v>-5823</v>
+      </c>
+      <c r="E243">
+        <v>-2163</v>
+      </c>
+      <c r="F243">
+        <v>6211.7548245242297</v>
+      </c>
+      <c r="I243">
+        <v>16800</v>
+      </c>
+      <c r="J243">
+        <v>209416.63406046401</v>
+      </c>
+      <c r="K243">
+        <v>-82.378572848310796</v>
+      </c>
+      <c r="L243">
+        <v>-4464</v>
+      </c>
+      <c r="M243">
+        <v>-1531</v>
+      </c>
+      <c r="N243">
+        <v>4719.2432656094297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>17000</v>
+      </c>
+      <c r="B244">
+        <v>157424.32397448301</v>
+      </c>
+      <c r="C244">
+        <v>-81.139969034115794</v>
+      </c>
+      <c r="D244">
+        <v>-5873</v>
+      </c>
+      <c r="E244">
+        <v>-2218</v>
+      </c>
+      <c r="F244">
+        <v>6277.8701005994099</v>
+      </c>
+      <c r="I244">
+        <v>17000</v>
+      </c>
+      <c r="J244">
+        <v>207413.841624919</v>
+      </c>
+      <c r="K244">
+        <v>-82.337676970277897</v>
+      </c>
+      <c r="L244">
+        <v>-4506</v>
+      </c>
+      <c r="M244">
+        <v>-1549</v>
+      </c>
+      <c r="N244">
+        <v>4764.8123782579296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>17200</v>
+      </c>
+      <c r="B245">
+        <v>155872.241414836</v>
+      </c>
+      <c r="C245">
+        <v>-81.102151945391498</v>
+      </c>
+      <c r="D245">
+        <v>-5930</v>
+      </c>
+      <c r="E245">
+        <v>-2244</v>
+      </c>
+      <c r="F245">
+        <v>6340.38137654195</v>
+      </c>
+      <c r="I245">
+        <v>17200</v>
+      </c>
+      <c r="J245">
+        <v>204945.80748749</v>
+      </c>
+      <c r="K245">
+        <v>-82.182483112072006</v>
+      </c>
+      <c r="L245">
+        <v>-4556</v>
+      </c>
+      <c r="M245">
+        <v>-1580</v>
+      </c>
+      <c r="N245">
+        <v>4822.1920326755999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>17400</v>
+      </c>
+      <c r="B246">
+        <v>154052.890597733</v>
+      </c>
+      <c r="C246">
+        <v>-80.925401215104003</v>
+      </c>
+      <c r="D246">
+        <v>-5993</v>
+      </c>
+      <c r="E246">
+        <v>-2289</v>
+      </c>
+      <c r="F246">
+        <v>6415.2607117715797</v>
+      </c>
+      <c r="I246">
+        <v>17400</v>
+      </c>
+      <c r="J246">
+        <v>202795.223390881</v>
+      </c>
+      <c r="K246">
+        <v>-81.992671454683304</v>
+      </c>
+      <c r="L246">
+        <v>-4599</v>
+      </c>
+      <c r="M246">
+        <v>-1612</v>
+      </c>
+      <c r="N246">
+        <v>4873.3299703590801</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>17600</v>
+      </c>
+      <c r="B247">
+        <v>152351.67947962999</v>
+      </c>
+      <c r="C247">
+        <v>-80.779344421264</v>
+      </c>
+      <c r="D247">
+        <v>-6054</v>
+      </c>
+      <c r="E247">
+        <v>-2330</v>
+      </c>
+      <c r="F247">
+        <v>6486.89571366767</v>
+      </c>
+      <c r="I247">
+        <v>17600</v>
+      </c>
+      <c r="J247">
+        <v>200456.93019820601</v>
+      </c>
+      <c r="K247">
+        <v>-81.830082166578904</v>
+      </c>
+      <c r="L247">
+        <v>-4648</v>
+      </c>
+      <c r="M247">
+        <v>-1644</v>
+      </c>
+      <c r="N247">
+        <v>4930.1764674299402</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>17800</v>
+      </c>
+      <c r="B248">
+        <v>151027.52820900001</v>
+      </c>
+      <c r="C248">
+        <v>-80.680131357937398</v>
+      </c>
+      <c r="D248">
+        <v>-6103</v>
+      </c>
+      <c r="E248">
+        <v>-2361</v>
+      </c>
+      <c r="F248">
+        <v>6543.7703199302496</v>
+      </c>
+      <c r="I248">
+        <v>17800</v>
+      </c>
+      <c r="J248">
+        <v>198159.66723229599</v>
+      </c>
+      <c r="K248">
+        <v>-81.696701799016196</v>
+      </c>
+      <c r="L248">
+        <v>-4698</v>
+      </c>
+      <c r="M248">
+        <v>-1674</v>
+      </c>
+      <c r="N248">
+        <v>4987.3319520561299</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>18000</v>
+      </c>
+      <c r="B249">
+        <v>149501.43003146601</v>
+      </c>
+      <c r="C249">
+        <v>-80.457863182688399</v>
+      </c>
+      <c r="D249">
+        <v>-6156</v>
+      </c>
+      <c r="E249">
+        <v>-2409</v>
+      </c>
+      <c r="F249">
+        <v>6610.5685837150204</v>
+      </c>
+      <c r="I249">
+        <v>18000</v>
+      </c>
+      <c r="J249">
+        <v>196767.82082679999</v>
+      </c>
+      <c r="K249">
+        <v>-81.452388979175694</v>
+      </c>
+      <c r="L249">
+        <v>-4724</v>
+      </c>
+      <c r="M249">
+        <v>-1706</v>
+      </c>
+      <c r="N249">
+        <v>5022.6100784353102</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>18200</v>
+      </c>
+      <c r="B250">
+        <v>148124.23808722501</v>
+      </c>
+      <c r="C250">
+        <v>-80.452309744990401</v>
+      </c>
+      <c r="D250">
+        <v>-6213</v>
+      </c>
+      <c r="E250">
+        <v>-2432</v>
+      </c>
+      <c r="F250">
+        <v>6672.0306504092096</v>
+      </c>
+      <c r="I250">
+        <v>18200</v>
+      </c>
+      <c r="J250">
+        <v>194642.58856184201</v>
+      </c>
+      <c r="K250">
+        <v>-81.267843695772001</v>
+      </c>
+      <c r="L250">
+        <v>-4770</v>
+      </c>
+      <c r="M250">
+        <v>-1740</v>
+      </c>
+      <c r="N250">
+        <v>5077.45014746575</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>18400</v>
+      </c>
+      <c r="B251">
+        <v>146722.545509711</v>
+      </c>
+      <c r="C251">
+        <v>-80.235051655488704</v>
+      </c>
+      <c r="D251">
+        <v>-6263</v>
+      </c>
+      <c r="E251">
+        <v>-2479</v>
+      </c>
+      <c r="F251">
+        <v>6735.7709284090097</v>
+      </c>
+      <c r="I251">
+        <v>18400</v>
+      </c>
+      <c r="J251">
+        <v>192092.332899231</v>
+      </c>
+      <c r="K251">
+        <v>-81.387533656712705</v>
+      </c>
+      <c r="L251">
+        <v>-4837</v>
+      </c>
+      <c r="M251">
+        <v>-1753</v>
+      </c>
+      <c r="N251">
+        <v>5144.8593761151496</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>18600</v>
+      </c>
+      <c r="B252">
+        <v>145313.29167509099</v>
+      </c>
+      <c r="C252">
+        <v>-80.081317992645396</v>
+      </c>
+      <c r="D252">
+        <v>-6317</v>
+      </c>
+      <c r="E252">
+        <v>-2520</v>
+      </c>
+      <c r="F252">
+        <v>6801.0946912978698</v>
+      </c>
+      <c r="I252">
+        <v>18600</v>
+      </c>
+      <c r="J252">
+        <v>190375.14115193201</v>
+      </c>
+      <c r="K252">
+        <v>-81.173873724682196</v>
+      </c>
+      <c r="L252">
+        <v>-4874</v>
+      </c>
+      <c r="M252">
+        <v>-1787</v>
+      </c>
+      <c r="N252">
+        <v>5191.2662231867898</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>18800</v>
+      </c>
+      <c r="B253">
+        <v>143739.419034369</v>
+      </c>
+      <c r="C253">
+        <v>-79.943019219238906</v>
+      </c>
+      <c r="D253">
+        <v>-6380</v>
+      </c>
+      <c r="E253">
+        <v>-2563</v>
+      </c>
+      <c r="F253">
+        <v>6875.5631769332203</v>
+      </c>
+      <c r="I253">
+        <v>18800</v>
+      </c>
+      <c r="J253">
+        <v>188908.77467428599</v>
+      </c>
+      <c r="K253">
+        <v>-81.0206533411246</v>
+      </c>
+      <c r="L253">
+        <v>-4907</v>
+      </c>
+      <c r="M253">
+        <v>-1814</v>
+      </c>
+      <c r="N253">
+        <v>5231.5623861328504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>19000</v>
+      </c>
+      <c r="B254">
+        <v>142537.85701001401</v>
+      </c>
+      <c r="C254">
+        <v>-79.859332418052105</v>
+      </c>
+      <c r="D254">
+        <v>-6430</v>
+      </c>
+      <c r="E254">
+        <v>-2594</v>
+      </c>
+      <c r="F254">
+        <v>6933.5226256211199</v>
+      </c>
+      <c r="I254">
+        <v>19000</v>
+      </c>
+      <c r="J254">
+        <v>186829.26640986599</v>
+      </c>
+      <c r="K254">
+        <v>-80.722325061031</v>
+      </c>
+      <c r="L254">
+        <v>-4952</v>
+      </c>
+      <c r="M254">
+        <v>-1860</v>
+      </c>
+      <c r="N254">
+        <v>5289.7924344911698</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>19200</v>
+      </c>
+      <c r="B255">
+        <v>141171.25261451799</v>
+      </c>
+      <c r="C255">
+        <v>-79.701370507820101</v>
+      </c>
+      <c r="D255">
+        <v>-6485</v>
+      </c>
+      <c r="E255">
+        <v>-2637</v>
+      </c>
+      <c r="F255">
+        <v>7000.6423990945304</v>
+      </c>
+      <c r="I255">
+        <v>19200</v>
+      </c>
+      <c r="J255">
+        <v>185617.24786264301</v>
+      </c>
+      <c r="K255">
+        <v>-80.620503334897705</v>
+      </c>
+      <c r="L255">
+        <v>-4981</v>
+      </c>
+      <c r="M255">
+        <v>-1881</v>
+      </c>
+      <c r="N255">
+        <v>5324.3330098708102</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>19400</v>
+      </c>
+      <c r="B256">
+        <v>139777.020402906</v>
+      </c>
+      <c r="C256">
+        <v>-79.493921357605203</v>
+      </c>
+      <c r="D256">
+        <v>-6540</v>
+      </c>
+      <c r="E256">
+        <v>-2687</v>
+      </c>
+      <c r="F256">
+        <v>7070.4716250049396</v>
+      </c>
+      <c r="I256">
+        <v>19400</v>
+      </c>
+      <c r="J256">
+        <v>183491.61578100701</v>
+      </c>
+      <c r="K256">
+        <v>-80.629488229695994</v>
+      </c>
+      <c r="L256">
+        <v>-5039</v>
+      </c>
+      <c r="M256">
+        <v>-1902</v>
+      </c>
+      <c r="N256">
+        <v>5386.0119754787002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>19600</v>
+      </c>
+      <c r="B257">
+        <v>138676.09426617</v>
+      </c>
+      <c r="C257">
+        <v>-79.453338906673295</v>
+      </c>
+      <c r="D257">
+        <v>-6590</v>
+      </c>
+      <c r="E257">
+        <v>-2713</v>
+      </c>
+      <c r="F257">
+        <v>7126.60290741669</v>
+      </c>
+      <c r="I257">
+        <v>19600</v>
+      </c>
+      <c r="J257">
+        <v>182108.24501512299</v>
+      </c>
+      <c r="K257">
+        <v>-80.442592197973397</v>
+      </c>
+      <c r="L257">
+        <v>-5071</v>
+      </c>
+      <c r="M257">
+        <v>-1933</v>
+      </c>
+      <c r="N257">
+        <v>5426.9263860863302</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>19800</v>
+      </c>
+      <c r="B258">
+        <v>137208.142234514</v>
+      </c>
+      <c r="C258">
+        <v>-79.255565219157305</v>
+      </c>
+      <c r="D258">
+        <v>-6651</v>
+      </c>
+      <c r="E258">
+        <v>-2765</v>
+      </c>
+      <c r="F258">
+        <v>7202.8484643229904</v>
+      </c>
+      <c r="I258">
+        <v>19800</v>
+      </c>
+      <c r="J258">
+        <v>180298.42606685299</v>
+      </c>
+      <c r="K258">
+        <v>-80.357587934816607</v>
+      </c>
+      <c r="L258">
+        <v>-5119</v>
+      </c>
+      <c r="M258">
+        <v>-1960</v>
+      </c>
+      <c r="N258">
+        <v>5481.4013719121103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>20000</v>
+      </c>
+      <c r="B259">
+        <v>135975.29796037599</v>
+      </c>
+      <c r="C259">
+        <v>-79.187843093615001</v>
+      </c>
+      <c r="D259">
+        <v>-6708</v>
+      </c>
+      <c r="E259">
+        <v>-2798</v>
+      </c>
+      <c r="F259">
+        <v>7268.1543737045104</v>
+      </c>
+      <c r="I259">
+        <v>20000</v>
+      </c>
+      <c r="J259">
+        <v>178713.63908536601</v>
+      </c>
+      <c r="K259">
+        <v>-80.173093847419295</v>
+      </c>
+      <c r="L259">
+        <v>-5158</v>
+      </c>
+      <c r="M259">
+        <v>-1994</v>
+      </c>
+      <c r="N259">
+        <v>5530.0090415839304</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>20200</v>
+      </c>
+      <c r="B260">
+        <v>134785.94381144701</v>
+      </c>
+      <c r="C260">
+        <v>-78.981859465144495</v>
+      </c>
+      <c r="D260">
+        <v>-6757</v>
+      </c>
+      <c r="E260">
+        <v>-2847</v>
+      </c>
+      <c r="F260">
+        <v>7332.2887286303703</v>
+      </c>
+      <c r="I260">
+        <v>20200</v>
+      </c>
+      <c r="J260">
+        <v>176774.02290614601</v>
+      </c>
+      <c r="K260">
+        <v>-80.127804360313803</v>
+      </c>
+      <c r="L260">
+        <v>-5213</v>
+      </c>
+      <c r="M260">
+        <v>-2020</v>
+      </c>
+      <c r="N260">
+        <v>5590.6859149839602</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>20400</v>
+      </c>
+      <c r="B261">
+        <v>133685.59733561799</v>
+      </c>
+      <c r="C261">
+        <v>-78.909791768076502</v>
+      </c>
+      <c r="D261">
+        <v>-6809</v>
+      </c>
+      <c r="E261">
+        <v>-2879</v>
+      </c>
+      <c r="F261">
+        <v>7392.6397179897804</v>
+      </c>
+      <c r="I261">
+        <v>20400</v>
+      </c>
+      <c r="J261">
+        <v>175109.86165587901</v>
+      </c>
+      <c r="K261">
+        <v>-79.944749889318004</v>
+      </c>
+      <c r="L261">
+        <v>-5256</v>
+      </c>
+      <c r="M261">
+        <v>-2056</v>
+      </c>
+      <c r="N261">
+        <v>5643.8171479947896</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>20600</v>
+      </c>
+      <c r="B262">
+        <v>132535.94749314501</v>
+      </c>
+      <c r="C262">
+        <v>-78.692492059140605</v>
+      </c>
+      <c r="D262">
+        <v>-6857</v>
+      </c>
+      <c r="E262">
+        <v>-2930</v>
+      </c>
+      <c r="F262">
+        <v>7456.7653174818397</v>
+      </c>
+      <c r="I262">
+        <v>20600</v>
+      </c>
+      <c r="J262">
+        <v>173791.57831949601</v>
+      </c>
+      <c r="K262">
+        <v>-79.810485969433202</v>
+      </c>
+      <c r="L262">
+        <v>-5291</v>
+      </c>
+      <c r="M262">
+        <v>-2084</v>
+      </c>
+      <c r="N262">
+        <v>5686.6279111614103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>20800</v>
+      </c>
+      <c r="B263">
+        <v>131349.47478477901</v>
+      </c>
+      <c r="C263">
+        <v>-78.654945117996107</v>
+      </c>
+      <c r="D263">
+        <v>-6917</v>
+      </c>
+      <c r="E263">
+        <v>-2961</v>
+      </c>
+      <c r="F263">
+        <v>7524.1218756742601</v>
+      </c>
+      <c r="I263">
+        <v>20800</v>
+      </c>
+      <c r="J263">
+        <v>172101.63397963601</v>
+      </c>
+      <c r="K263">
+        <v>-79.675989724000402</v>
+      </c>
+      <c r="L263">
+        <v>-5338</v>
+      </c>
+      <c r="M263">
+        <v>-2117</v>
+      </c>
+      <c r="N263">
+        <v>5742.4675009964103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>21000</v>
+      </c>
+      <c r="B264">
+        <v>130219.486337008</v>
+      </c>
+      <c r="C264">
+        <v>-78.463419581665605</v>
+      </c>
+      <c r="D264">
+        <v>-6967</v>
+      </c>
+      <c r="E264">
+        <v>-3010</v>
+      </c>
+      <c r="F264">
+        <v>7589.4129548997398</v>
+      </c>
+      <c r="I264">
+        <v>21000</v>
+      </c>
+      <c r="J264">
+        <v>170815.33108299301</v>
+      </c>
+      <c r="K264">
+        <v>-79.536809021228606</v>
+      </c>
+      <c r="L264">
+        <v>-5373</v>
+      </c>
+      <c r="M264">
+        <v>-2146</v>
+      </c>
+      <c r="N264">
+        <v>5785.7104144607902</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>21200</v>
+      </c>
+      <c r="B265">
+        <v>129073.108947182</v>
+      </c>
+      <c r="C265">
+        <v>-78.371550303227295</v>
+      </c>
+      <c r="D265">
+        <v>-7024</v>
+      </c>
+      <c r="E265">
+        <v>-3048</v>
+      </c>
+      <c r="F265">
+        <v>7656.8191829244597</v>
+      </c>
+      <c r="I265">
+        <v>21200</v>
+      </c>
+      <c r="J265">
+        <v>169406.99902018701</v>
+      </c>
+      <c r="K265">
+        <v>-79.439906302554306</v>
+      </c>
+      <c r="L265">
+        <v>-5414</v>
+      </c>
+      <c r="M265">
+        <v>-2173</v>
+      </c>
+      <c r="N265">
+        <v>5833.80879014731</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>21400</v>
+      </c>
+      <c r="B266">
+        <v>127982.586682234</v>
+      </c>
+      <c r="C266">
+        <v>-78.225651732353796</v>
+      </c>
+      <c r="D266">
+        <v>-7076</v>
+      </c>
+      <c r="E266">
+        <v>-3092</v>
+      </c>
+      <c r="F266">
+        <v>7722.0619008138001</v>
+      </c>
+      <c r="I266">
+        <v>21400</v>
+      </c>
+      <c r="J266">
+        <v>167998.60408310601</v>
+      </c>
+      <c r="K266">
+        <v>-79.221623905015093</v>
+      </c>
+      <c r="L266">
+        <v>-5451</v>
+      </c>
+      <c r="M266">
+        <v>-2212</v>
+      </c>
+      <c r="N266">
+        <v>5882.7157843975401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>21600</v>
+      </c>
+      <c r="B267">
+        <v>126840.338877733</v>
+      </c>
+      <c r="C267">
+        <v>-78.0477359208015</v>
+      </c>
+      <c r="D267">
+        <v>-7130</v>
+      </c>
+      <c r="E267">
+        <v>-3142</v>
+      </c>
+      <c r="F267">
+        <v>7791.6021459004196</v>
+      </c>
+      <c r="I267">
+        <v>21600</v>
+      </c>
+      <c r="J267">
+        <v>166301.891620849</v>
+      </c>
+      <c r="K267">
+        <v>-79.154685378455596</v>
+      </c>
+      <c r="L267">
+        <v>-5504</v>
+      </c>
+      <c r="M267">
+        <v>-2241</v>
+      </c>
+      <c r="N267">
+        <v>5942.7348081501996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>21800</v>
+      </c>
+      <c r="B268">
+        <v>125882.872081628</v>
+      </c>
+      <c r="C268">
+        <v>-77.935221442951899</v>
+      </c>
+      <c r="D268">
+        <v>-7178</v>
+      </c>
+      <c r="E268">
+        <v>-3180</v>
+      </c>
+      <c r="F268">
+        <v>7850.8651752529804</v>
+      </c>
+      <c r="I268">
+        <v>21800</v>
+      </c>
+      <c r="J268">
+        <v>164845.58294174599</v>
+      </c>
+      <c r="K268">
+        <v>-78.987400812658905</v>
+      </c>
+      <c r="L268">
+        <v>-5546</v>
+      </c>
+      <c r="M268">
+        <v>-2277</v>
+      </c>
+      <c r="N268">
+        <v>5995.2351913832399</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>22000</v>
+      </c>
+      <c r="B269">
+        <v>124766.236442947</v>
+      </c>
+      <c r="C269">
+        <v>-77.788465361507306</v>
+      </c>
+      <c r="D269">
+        <v>-7234</v>
+      </c>
+      <c r="E269">
+        <v>-3227</v>
+      </c>
+      <c r="F269">
+        <v>7921.1290230623099</v>
+      </c>
+      <c r="I269">
+        <v>22000</v>
+      </c>
+      <c r="J269">
+        <v>163606.19716023499</v>
+      </c>
+      <c r="K269">
+        <v>-78.887387030594496</v>
+      </c>
+      <c r="L269">
+        <v>-5584</v>
+      </c>
+      <c r="M269">
+        <v>-2304</v>
+      </c>
+      <c r="N269">
+        <v>6040.6516204793697</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>22200</v>
+      </c>
+      <c r="B270">
+        <v>123881.14291678301</v>
+      </c>
+      <c r="C270">
+        <v>-77.6708890461761</v>
+      </c>
+      <c r="D270">
+        <v>-7279</v>
+      </c>
+      <c r="E270">
+        <v>-3265</v>
+      </c>
+      <c r="F270">
+        <v>7977.72310875729</v>
+      </c>
+      <c r="I270">
+        <v>22200</v>
+      </c>
+      <c r="J270">
+        <v>162307.11556389299</v>
+      </c>
+      <c r="K270">
+        <v>-78.6983402792725</v>
+      </c>
+      <c r="L270">
+        <v>-5621</v>
+      </c>
+      <c r="M270">
+        <v>-2341</v>
+      </c>
+      <c r="N270">
+        <v>6089.0000821152898</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>22400</v>
+      </c>
+      <c r="B271">
+        <v>122865.43032679</v>
+      </c>
+      <c r="C271">
+        <v>-77.459861836749795</v>
+      </c>
+      <c r="D271">
+        <v>-7327</v>
+      </c>
+      <c r="E271">
+        <v>-3319</v>
+      </c>
+      <c r="F271">
+        <v>8043.6739118390396</v>
+      </c>
+      <c r="I271">
+        <v>22400</v>
+      </c>
+      <c r="J271">
+        <v>161003.27439589601</v>
+      </c>
+      <c r="K271">
+        <v>-78.637233838488498</v>
+      </c>
+      <c r="L271">
+        <v>-5664</v>
+      </c>
+      <c r="M271">
+        <v>-2366</v>
+      </c>
+      <c r="N271">
+        <v>6138.3101909238803</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>22600</v>
+      </c>
+      <c r="B272">
+        <v>121942.109807118</v>
+      </c>
+      <c r="C272">
+        <v>-77.383243135480697</v>
+      </c>
+      <c r="D272">
+        <v>-7378</v>
+      </c>
+      <c r="E272">
+        <v>-3354</v>
+      </c>
+      <c r="F272">
+        <v>8104.5789526662002</v>
+      </c>
+      <c r="I272">
+        <v>22600</v>
+      </c>
+      <c r="J272">
+        <v>159620.17714688301</v>
+      </c>
+      <c r="K272">
+        <v>-78.491749973275802</v>
+      </c>
+      <c r="L272">
+        <v>-5707</v>
+      </c>
+      <c r="M272">
+        <v>-2401</v>
+      </c>
+      <c r="N272">
+        <v>6191.4982031815198</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>22800</v>
+      </c>
+      <c r="B273">
+        <v>120994.16945888899</v>
+      </c>
+      <c r="C273">
+        <v>-77.099960319909698</v>
+      </c>
+      <c r="D273">
+        <v>-7419</v>
+      </c>
+      <c r="E273">
+        <v>-3417</v>
+      </c>
+      <c r="F273">
+        <v>8168.0750486268198</v>
+      </c>
+      <c r="I273">
+        <v>22800</v>
+      </c>
+      <c r="J273">
+        <v>158231.73641747999</v>
+      </c>
+      <c r="K273">
+        <v>-78.442657958472395</v>
+      </c>
+      <c r="L273">
+        <v>-5755</v>
+      </c>
+      <c r="M273">
+        <v>-2427</v>
+      </c>
+      <c r="N273">
+        <v>6245.8269268368304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>23000</v>
+      </c>
+      <c r="B274">
+        <v>119895.08873646399</v>
+      </c>
+      <c r="C274">
+        <v>-77.133043931459298</v>
+      </c>
+      <c r="D274">
+        <v>-7489</v>
+      </c>
+      <c r="E274">
+        <v>-3444</v>
+      </c>
+      <c r="F274">
+        <v>8242.9519590981508</v>
+      </c>
+      <c r="I274">
+        <v>23000</v>
+      </c>
+      <c r="J274">
+        <v>157423.531131072</v>
+      </c>
+      <c r="K274">
+        <v>-78.080245480045093</v>
+      </c>
+      <c r="L274">
+        <v>-5769</v>
+      </c>
+      <c r="M274">
+        <v>-2476</v>
+      </c>
+      <c r="N274">
+        <v>6277.8927196950399</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>23200</v>
+      </c>
+      <c r="B275">
+        <v>119023.54158736599</v>
+      </c>
+      <c r="C275">
+        <v>-76.921863613655006</v>
+      </c>
+      <c r="D275">
+        <v>-7531</v>
+      </c>
+      <c r="E275">
+        <v>-3497</v>
+      </c>
+      <c r="F275">
+        <v>8303.3107854638292</v>
+      </c>
+      <c r="I275">
+        <v>23200</v>
+      </c>
+      <c r="J275">
+        <v>155826.46141002601</v>
+      </c>
+      <c r="K275">
+        <v>-78.054452509557095</v>
+      </c>
+      <c r="L275">
+        <v>-5827</v>
+      </c>
+      <c r="M275">
+        <v>-2504</v>
+      </c>
+      <c r="N275">
+        <v>6342.2350161437598</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>23400</v>
+      </c>
+      <c r="B276">
+        <v>118173.36274828399</v>
+      </c>
+      <c r="C276">
+        <v>-76.870175195294095</v>
+      </c>
+      <c r="D276">
+        <v>-7582</v>
+      </c>
+      <c r="E276">
+        <v>-3529</v>
+      </c>
+      <c r="F276">
+        <v>8363.0475904421291</v>
+      </c>
+      <c r="I276">
+        <v>23400</v>
+      </c>
+      <c r="J276">
+        <v>154602.92600434399</v>
+      </c>
+      <c r="K276">
+        <v>-77.916014673283001</v>
+      </c>
+      <c r="L276">
+        <v>-5867</v>
+      </c>
+      <c r="M276">
+        <v>-2538</v>
+      </c>
+      <c r="N276">
+        <v>6392.4277860606298</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>23600</v>
+      </c>
+      <c r="B277">
+        <v>117115.259028341</v>
+      </c>
+      <c r="C277">
+        <v>-76.621909745874305</v>
+      </c>
+      <c r="D277">
+        <v>-7635</v>
+      </c>
+      <c r="E277">
+        <v>-3594</v>
+      </c>
+      <c r="F277">
+        <v>8438.6053942579892</v>
+      </c>
+      <c r="I277">
+        <v>23600</v>
+      </c>
+      <c r="J277">
+        <v>153576.28576335</v>
+      </c>
+      <c r="K277">
+        <v>-77.799224589727601</v>
+      </c>
+      <c r="L277">
+        <v>-5901</v>
+      </c>
+      <c r="M277">
+        <v>-2567</v>
+      </c>
+      <c r="N277">
+        <v>6435.16044866016</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>23800</v>
+      </c>
+      <c r="B278">
+        <v>116306.116842228</v>
+      </c>
+      <c r="C278">
+        <v>-76.651742031094102</v>
+      </c>
+      <c r="D278">
+        <v>-7690</v>
+      </c>
+      <c r="E278">
+        <v>-3615</v>
+      </c>
+      <c r="F278">
+        <v>8497.3128105301603</v>
+      </c>
+      <c r="I278">
+        <v>23800</v>
+      </c>
+      <c r="J278">
+        <v>152103.85480790999</v>
+      </c>
+      <c r="K278">
+        <v>-77.576412424736503</v>
+      </c>
+      <c r="L278">
+        <v>-5948</v>
+      </c>
+      <c r="M278">
+        <v>-2615</v>
+      </c>
+      <c r="N278">
+        <v>6497.4555789170299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>24000</v>
+      </c>
+      <c r="B279">
+        <v>115454.66805573</v>
+      </c>
+      <c r="C279">
+        <v>-76.390078407478697</v>
+      </c>
+      <c r="D279">
+        <v>-7730</v>
+      </c>
+      <c r="E279">
+        <v>-3677</v>
+      </c>
+      <c r="F279">
+        <v>8559.9783294118206</v>
+      </c>
+      <c r="I279">
+        <v>24000</v>
+      </c>
+      <c r="J279">
+        <v>151108.56236655699</v>
+      </c>
+      <c r="K279">
+        <v>-77.377438773568301</v>
+      </c>
+      <c r="L279">
+        <v>-5978</v>
+      </c>
+      <c r="M279">
+        <v>-2653</v>
+      </c>
+      <c r="N279">
+        <v>6540.2517535642301</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>24200</v>
+      </c>
+      <c r="B280">
+        <v>114698.107173141</v>
+      </c>
+      <c r="C280">
+        <v>-76.266704065695507</v>
+      </c>
+      <c r="D280">
+        <v>-7773</v>
+      </c>
+      <c r="E280">
+        <v>-3718</v>
+      </c>
+      <c r="F280">
+        <v>8616.4408545524202</v>
+      </c>
+      <c r="I280">
+        <v>24200</v>
+      </c>
+      <c r="J280">
+        <v>149856.92194029401</v>
+      </c>
+      <c r="K280">
+        <v>-77.378945153389097</v>
+      </c>
+      <c r="L280">
+        <v>-6028</v>
+      </c>
+      <c r="M280">
+        <v>-2675</v>
+      </c>
+      <c r="N280">
+        <v>6594.8774818035899</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>24400</v>
+      </c>
+      <c r="B281">
+        <v>113748.94046365299</v>
+      </c>
+      <c r="C281">
+        <v>-76.223014274770705</v>
+      </c>
+      <c r="D281">
+        <v>-7835</v>
+      </c>
+      <c r="E281">
+        <v>-3755</v>
+      </c>
+      <c r="F281">
+        <v>8688.33988745836</v>
+      </c>
+      <c r="I281">
+        <v>24400</v>
+      </c>
+      <c r="J281">
+        <v>148782.374538103</v>
+      </c>
+      <c r="K281">
+        <v>-77.240334729522999</v>
+      </c>
+      <c r="L281">
+        <v>-6065</v>
+      </c>
+      <c r="M281">
+        <v>-2709</v>
+      </c>
+      <c r="N281">
+        <v>6642.5075084639502</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>24600</v>
+      </c>
+      <c r="B282">
+        <v>112883.141789427</v>
+      </c>
+      <c r="C282">
+        <v>-76.025459053402699</v>
+      </c>
+      <c r="D282">
+        <v>-7882</v>
+      </c>
+      <c r="E282">
+        <v>-3811</v>
+      </c>
+      <c r="F282">
+        <v>8754.9782980884593</v>
+      </c>
+      <c r="I282">
+        <v>24600</v>
+      </c>
+      <c r="J282">
+        <v>147568.28002516099</v>
+      </c>
+      <c r="K282">
+        <v>-77.158677186382803</v>
+      </c>
+      <c r="L282">
+        <v>-6111</v>
+      </c>
+      <c r="M282">
+        <v>-2740</v>
+      </c>
+      <c r="N282">
+        <v>6697.1576806881303</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>24800</v>
+      </c>
+      <c r="B283">
+        <v>112084.758299553</v>
+      </c>
+      <c r="C283">
+        <v>-75.889295800667298</v>
+      </c>
+      <c r="D283">
+        <v>-7929</v>
+      </c>
+      <c r="E283">
+        <v>-3857</v>
+      </c>
+      <c r="F283">
+        <v>8817.3403019277903</v>
+      </c>
+      <c r="I283">
+        <v>24800</v>
+      </c>
+      <c r="J283">
+        <v>146665.62350540599</v>
+      </c>
+      <c r="K283">
+        <v>-76.774766376195501</v>
+      </c>
+      <c r="L283">
+        <v>-6130</v>
+      </c>
+      <c r="M283">
+        <v>-2798</v>
+      </c>
+      <c r="N283">
+        <v>6738.3754718774799</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>25000</v>
+      </c>
+      <c r="B284">
+        <v>111426.230130123</v>
+      </c>
+      <c r="C284">
+        <v>-75.744059333076606</v>
+      </c>
+      <c r="D284">
+        <v>-7966</v>
+      </c>
+      <c r="E284">
+        <v>-3900</v>
+      </c>
+      <c r="F284">
+        <v>8869.4507157997105</v>
+      </c>
+      <c r="I284">
+        <v>25000</v>
+      </c>
+      <c r="J284">
+        <v>145426.18466783801</v>
+      </c>
+      <c r="K284">
+        <v>-76.912288326787206</v>
+      </c>
+      <c r="L284">
+        <v>-6189</v>
+      </c>
+      <c r="M284">
+        <v>-2807</v>
+      </c>
+      <c r="N284">
+        <v>6795.8053238744296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>25200</v>
+      </c>
+      <c r="B285">
+        <v>110463.798715486</v>
+      </c>
+      <c r="C285">
+        <v>-75.665450730032106</v>
+      </c>
+      <c r="D285">
+        <v>-8030</v>
+      </c>
+      <c r="E285">
+        <v>-3945</v>
+      </c>
+      <c r="F285">
+        <v>8946.7270551861602</v>
+      </c>
+      <c r="I285">
+        <v>25200</v>
+      </c>
+      <c r="J285">
+        <v>144344.41949043301</v>
+      </c>
+      <c r="K285">
+        <v>-76.682694935889998</v>
+      </c>
+      <c r="L285">
+        <v>-6224</v>
+      </c>
+      <c r="M285">
+        <v>-2853</v>
+      </c>
+      <c r="N285">
+        <v>6846.7353534367003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>25400</v>
+      </c>
+      <c r="B286">
+        <v>109730.684436287</v>
+      </c>
+      <c r="C286">
+        <v>-75.483552235013505</v>
+      </c>
+      <c r="D286">
+        <v>-8071</v>
+      </c>
+      <c r="E286">
+        <v>-3997</v>
+      </c>
+      <c r="F286">
+        <v>9006.5004302448106</v>
+      </c>
+      <c r="I286">
+        <v>25400</v>
+      </c>
+      <c r="J286">
+        <v>143404.17114243199</v>
+      </c>
+      <c r="K286">
+        <v>-76.6068184626494</v>
+      </c>
+      <c r="L286">
+        <v>-6261</v>
+      </c>
+      <c r="M286">
+        <v>-2880</v>
+      </c>
+      <c r="N286">
+        <v>6891.6268761447</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>25600</v>
+      </c>
+      <c r="B287">
+        <v>108952.331884511</v>
+      </c>
+      <c r="C287">
+        <v>-75.346406722237305</v>
+      </c>
+      <c r="D287">
+        <v>-8119</v>
+      </c>
+      <c r="E287">
+        <v>-4045</v>
+      </c>
+      <c r="F287">
+        <v>9070.8426289953895</v>
+      </c>
+      <c r="I287">
+        <v>25600</v>
+      </c>
+      <c r="J287">
+        <v>142323.87921420901</v>
+      </c>
+      <c r="K287">
+        <v>-76.478331237532501</v>
+      </c>
+      <c r="L287">
+        <v>-6302</v>
+      </c>
+      <c r="M287">
+        <v>-2916</v>
+      </c>
+      <c r="N287">
+        <v>6943.9369236766497</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>25800</v>
+      </c>
+      <c r="B288">
+        <v>108099.654669158</v>
+      </c>
+      <c r="C288">
+        <v>-75.205630194060703</v>
+      </c>
+      <c r="D288">
+        <v>-8173</v>
+      </c>
+      <c r="E288">
+        <v>-4097</v>
+      </c>
+      <c r="F288">
+        <v>9142.3923564896304</v>
+      </c>
+      <c r="I288">
+        <v>25800</v>
+      </c>
+      <c r="J288">
+        <v>141479.01552166801</v>
+      </c>
+      <c r="K288">
+        <v>-76.310236045084196</v>
+      </c>
+      <c r="L288">
+        <v>-6331</v>
+      </c>
+      <c r="M288">
+        <v>-2952</v>
+      </c>
+      <c r="N288">
+        <v>6985.4037105954003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>26000</v>
+      </c>
+      <c r="B289">
+        <v>107368.969159862</v>
+      </c>
+      <c r="C289">
+        <v>-75.058488159113907</v>
+      </c>
+      <c r="D289">
+        <v>-8218</v>
+      </c>
+      <c r="E289">
+        <v>-4146</v>
+      </c>
+      <c r="F289">
+        <v>9204.6097147027394</v>
+      </c>
+      <c r="I289">
+        <v>26000</v>
+      </c>
+      <c r="J289">
+        <v>140395.89628147299</v>
+      </c>
+      <c r="K289">
+        <v>-76.236337616777007</v>
+      </c>
+      <c r="L289">
+        <v>-6376</v>
+      </c>
+      <c r="M289">
+        <v>-2983</v>
+      </c>
+      <c r="N289">
+        <v>7039.2943538397403</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>26200</v>
+      </c>
+      <c r="B290">
+        <v>106886.24429013301</v>
+      </c>
+      <c r="C290">
+        <v>-75.098211989472205</v>
+      </c>
+      <c r="D290">
+        <v>-8258</v>
+      </c>
+      <c r="E290">
+        <v>-4159</v>
+      </c>
+      <c r="F290">
+        <v>9246.1800220415407</v>
+      </c>
+      <c r="I290">
+        <v>26200</v>
+      </c>
+      <c r="J290">
+        <v>139240.13523360199</v>
+      </c>
+      <c r="K290">
+        <v>-76.029045642230997</v>
+      </c>
+      <c r="L290">
+        <v>-6418</v>
+      </c>
+      <c r="M290">
+        <v>-3031</v>
+      </c>
+      <c r="N290">
+        <v>7097.7239309513898</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>26400</v>
+      </c>
+      <c r="B291">
+        <v>105950.08996488201</v>
+      </c>
+      <c r="C291">
+        <v>-74.772772398002203</v>
+      </c>
+      <c r="D291">
+        <v>-8307</v>
+      </c>
+      <c r="E291">
+        <v>-4243</v>
+      </c>
+      <c r="F291">
+        <v>9327.8774648898598</v>
+      </c>
+      <c r="I291">
+        <v>26400</v>
+      </c>
+      <c r="J291">
+        <v>138339.07378494399</v>
+      </c>
+      <c r="K291">
+        <v>-75.920275180717496</v>
+      </c>
+      <c r="L291">
+        <v>-6454</v>
+      </c>
+      <c r="M291">
+        <v>-3063</v>
+      </c>
+      <c r="N291">
+        <v>7143.95443714474</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>26600</v>
+      </c>
+      <c r="B292">
+        <v>105282.476593568</v>
+      </c>
+      <c r="C292">
+        <v>-74.696707175560306</v>
+      </c>
+      <c r="D292">
+        <v>-8354</v>
+      </c>
+      <c r="E292">
+        <v>-4281</v>
+      </c>
+      <c r="F292">
+        <v>9387.0270586591996</v>
+      </c>
+      <c r="I292">
+        <v>26600</v>
+      </c>
+      <c r="J292">
+        <v>137458.92097241001</v>
+      </c>
+      <c r="K292">
+        <v>-75.784463979831202</v>
+      </c>
+      <c r="L292">
+        <v>-6488</v>
+      </c>
+      <c r="M292">
+        <v>-3098</v>
+      </c>
+      <c r="N292">
+        <v>7189.6973510711796</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>26800</v>
+      </c>
+      <c r="B293">
+        <v>104737.422774776</v>
+      </c>
+      <c r="C293">
+        <v>-74.425356852480306</v>
+      </c>
+      <c r="D293">
+        <v>-8377</v>
+      </c>
+      <c r="E293">
+        <v>-4343</v>
+      </c>
+      <c r="F293">
+        <v>9435.8771717313102</v>
+      </c>
+      <c r="I293">
+        <v>26800</v>
+      </c>
+      <c r="J293">
+        <v>136445.659011301</v>
+      </c>
+      <c r="K293">
+        <v>-75.652956342931802</v>
+      </c>
+      <c r="L293">
+        <v>-6529</v>
+      </c>
+      <c r="M293">
+        <v>-3136</v>
+      </c>
+      <c r="N293">
+        <v>7243.0889128879298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>27000</v>
+      </c>
+      <c r="B294">
+        <v>103820.66426791</v>
+      </c>
+      <c r="C294">
+        <v>-74.373476668708904</v>
+      </c>
+      <c r="D294">
+        <v>-8447</v>
+      </c>
+      <c r="E294">
+        <v>-4389</v>
+      </c>
+      <c r="F294">
+        <v>9519.1979704174701</v>
+      </c>
+      <c r="I294">
+        <v>27000</v>
+      </c>
+      <c r="J294">
+        <v>135489.15062778501</v>
+      </c>
+      <c r="K294">
+        <v>-75.488487796700298</v>
+      </c>
+      <c r="L294">
+        <v>-6566</v>
+      </c>
+      <c r="M294">
+        <v>-3177</v>
+      </c>
+      <c r="N294">
+        <v>7294.2227139017396</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>27200</v>
+      </c>
+      <c r="B295">
+        <v>103152.882269069</v>
+      </c>
+      <c r="C295">
+        <v>-74.248141937893905</v>
+      </c>
+      <c r="D295">
+        <v>-8492</v>
+      </c>
+      <c r="E295">
+        <v>-4436</v>
+      </c>
+      <c r="F295">
+        <v>9580.8225116636004</v>
+      </c>
+      <c r="I295">
+        <v>27200</v>
+      </c>
+      <c r="J295">
+        <v>134650.49422304999</v>
+      </c>
+      <c r="K295">
+        <v>-75.365171962210994</v>
+      </c>
+      <c r="L295">
+        <v>-6600</v>
+      </c>
+      <c r="M295">
+        <v>-3211</v>
+      </c>
+      <c r="N295">
+        <v>7339.65401091904</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>27400</v>
+      </c>
+      <c r="B296">
+        <v>102486.268544002</v>
+      </c>
+      <c r="C296">
+        <v>-74.066016527227902</v>
+      </c>
+      <c r="D296">
+        <v>-8533</v>
+      </c>
+      <c r="E296">
+        <v>-4492</v>
+      </c>
+      <c r="F296">
+        <v>9643.1402043110393</v>
+      </c>
+      <c r="I296">
+        <v>27400</v>
+      </c>
+      <c r="J296">
+        <v>133676.259236207</v>
+      </c>
+      <c r="K296">
+        <v>-75.222035657655397</v>
+      </c>
+      <c r="L296">
+        <v>-6640</v>
+      </c>
+      <c r="M296">
+        <v>-3251</v>
+      </c>
+      <c r="N296">
+        <v>7393.1455416486997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>27600</v>
+      </c>
+      <c r="B297">
+        <v>101874.098566922</v>
+      </c>
+      <c r="C297">
+        <v>-73.999202934254598</v>
+      </c>
+      <c r="D297">
+        <v>-8579</v>
+      </c>
+      <c r="E297">
+        <v>-4529</v>
+      </c>
+      <c r="F297">
+        <v>9701.0866401656294</v>
+      </c>
+      <c r="I297">
+        <v>27600</v>
+      </c>
+      <c r="J297">
+        <v>132865.89059277301</v>
+      </c>
+      <c r="K297">
+        <v>-75.143347666204605</v>
+      </c>
+      <c r="L297">
+        <v>-6676</v>
+      </c>
+      <c r="M297">
+        <v>-3280</v>
+      </c>
+      <c r="N297">
+        <v>7438.2374256271196</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>27800</v>
+      </c>
+      <c r="B298">
+        <v>101185.897457233</v>
+      </c>
+      <c r="C298">
+        <v>-73.831931916733595</v>
+      </c>
+      <c r="D298">
+        <v>-8624</v>
+      </c>
+      <c r="E298">
+        <v>-4585</v>
+      </c>
+      <c r="F298">
+        <v>9767.0671647122399</v>
+      </c>
+      <c r="I298">
+        <v>27800</v>
+      </c>
+      <c r="J298">
+        <v>131939.186030465</v>
+      </c>
+      <c r="K298">
+        <v>-75.041355412197305</v>
+      </c>
+      <c r="L298">
+        <v>-6717</v>
+      </c>
+      <c r="M298">
+        <v>-3315</v>
+      </c>
+      <c r="N298">
+        <v>7490.4815599532703</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>28000</v>
+      </c>
+      <c r="B299">
+        <v>100583.234667564</v>
+      </c>
+      <c r="C299">
+        <v>-73.749161921195096</v>
+      </c>
+      <c r="D299">
+        <v>-8669</v>
+      </c>
+      <c r="E299">
+        <v>-4625</v>
+      </c>
+      <c r="F299">
+        <v>9825.5883284411993</v>
+      </c>
+      <c r="I299">
+        <v>28000</v>
+      </c>
+      <c r="J299">
+        <v>131087.59901920799</v>
+      </c>
+      <c r="K299">
+        <v>-74.859300973216904</v>
+      </c>
+      <c r="L299">
+        <v>-6750</v>
+      </c>
+      <c r="M299">
+        <v>-3358</v>
+      </c>
+      <c r="N299">
+        <v>7539.1421262634403</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>28200</v>
+      </c>
+      <c r="B300">
+        <v>99851.610649757597</v>
+      </c>
+      <c r="C300">
+        <v>-73.5711262012303</v>
+      </c>
+      <c r="D300">
+        <v>-8718</v>
+      </c>
+      <c r="E300">
+        <v>-4686</v>
+      </c>
+      <c r="F300">
+        <v>9897.5815227761595</v>
+      </c>
+      <c r="I300">
+        <v>28200</v>
+      </c>
+      <c r="J300">
+        <v>130176.637064852</v>
+      </c>
+      <c r="K300">
+        <v>-74.787620685895604</v>
+      </c>
+      <c r="L300">
+        <v>-6793</v>
+      </c>
+      <c r="M300">
+        <v>-3390</v>
+      </c>
+      <c r="N300">
+        <v>7591.9002232642697</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>28400</v>
+      </c>
+      <c r="B301">
+        <v>99228.279738173806</v>
+      </c>
+      <c r="C301">
+        <v>-73.489040823241098</v>
+      </c>
+      <c r="D301">
+        <v>-8766</v>
+      </c>
+      <c r="E301">
+        <v>-4728</v>
+      </c>
+      <c r="F301">
+        <v>9959.7560211081509</v>
+      </c>
+      <c r="I301">
+        <v>28400</v>
+      </c>
+      <c r="J301">
+        <v>129435.95912466499</v>
+      </c>
+      <c r="K301">
+        <v>-74.505474730954106</v>
+      </c>
+      <c r="L301">
+        <v>-6815</v>
+      </c>
+      <c r="M301">
+        <v>-3443</v>
+      </c>
+      <c r="N301">
+        <v>7635.3437381692302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>28600</v>
+      </c>
+      <c r="B302">
+        <v>98564.902427302906</v>
+      </c>
+      <c r="C302">
+        <v>-73.344948033913496</v>
+      </c>
+      <c r="D302">
+        <v>-8813</v>
+      </c>
+      <c r="E302">
+        <v>-4782</v>
+      </c>
+      <c r="F302">
+        <v>10026.788768095201</v>
+      </c>
+      <c r="I302">
+        <v>28600</v>
+      </c>
+      <c r="J302">
+        <v>128494.493739988</v>
+      </c>
+      <c r="K302">
+        <v>-74.440577261387304</v>
+      </c>
+      <c r="L302">
+        <v>-6861</v>
+      </c>
+      <c r="M302">
+        <v>-3476</v>
+      </c>
+      <c r="N302">
+        <v>7691.2870834470896</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>28800</v>
+      </c>
+      <c r="B303">
+        <v>97942.216380804704</v>
+      </c>
+      <c r="C303">
+        <v>-73.166511158064097</v>
+      </c>
+      <c r="D303">
+        <v>-8854</v>
+      </c>
+      <c r="E303">
+        <v>-4840</v>
+      </c>
+      <c r="F303">
+        <v>10090.5359619794</v>
+      </c>
+      <c r="I303">
+        <v>28800</v>
+      </c>
+      <c r="J303">
+        <v>127661.289479578</v>
+      </c>
+      <c r="K303">
+        <v>-74.313454828270096</v>
+      </c>
+      <c r="L303">
+        <v>-6898</v>
+      </c>
+      <c r="M303">
+        <v>-3514</v>
+      </c>
+      <c r="N303">
+        <v>7741.4856455334202</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>29000</v>
+      </c>
+      <c r="B304">
+        <v>97372.640066984997</v>
+      </c>
+      <c r="C304">
+        <v>-73.039766566705794</v>
+      </c>
+      <c r="D304">
+        <v>-8895</v>
+      </c>
+      <c r="E304">
+        <v>-4888</v>
+      </c>
+      <c r="F304">
+        <v>10149.5600397259</v>
+      </c>
+      <c r="I304">
+        <v>29000</v>
+      </c>
+      <c r="J304">
+        <v>126851.967506898</v>
+      </c>
+      <c r="K304">
+        <v>-74.151730939858695</v>
+      </c>
+      <c r="L304">
+        <v>-6932</v>
+      </c>
+      <c r="M304">
+        <v>-3556</v>
+      </c>
+      <c r="N304">
+        <v>7790.8767157490001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>29200</v>
+      </c>
+      <c r="B305">
+        <v>96744.795302743601</v>
+      </c>
+      <c r="C305">
+        <v>-72.903499957388405</v>
+      </c>
+      <c r="D305">
+        <v>-8941</v>
+      </c>
+      <c r="E305">
+        <v>-4941</v>
+      </c>
+      <c r="F305">
+        <v>10215.427646457099</v>
+      </c>
+      <c r="I305">
+        <v>29200</v>
+      </c>
+      <c r="J305">
+        <v>126196.735195448</v>
+      </c>
+      <c r="K305">
+        <v>-74.023903767860702</v>
+      </c>
+      <c r="L305">
+        <v>-6960</v>
+      </c>
+      <c r="M305">
+        <v>-3590</v>
+      </c>
+      <c r="N305">
+        <v>7831.3281121403697</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>29400</v>
+      </c>
+      <c r="B306">
+        <v>96179.887214114206</v>
+      </c>
+      <c r="C306">
+        <v>-72.782516385515507</v>
+      </c>
+      <c r="D306">
+        <v>-8983</v>
+      </c>
+      <c r="E306">
+        <v>-4989</v>
+      </c>
+      <c r="F306">
+        <v>10275.4274850246</v>
+      </c>
+      <c r="I306">
+        <v>29400</v>
+      </c>
+      <c r="J306">
+        <v>125399.36240896401</v>
+      </c>
+      <c r="K306">
+        <v>-73.940661036201107</v>
+      </c>
+      <c r="L306">
+        <v>-6999</v>
+      </c>
+      <c r="M306">
+        <v>-3623</v>
+      </c>
+      <c r="N306">
+        <v>7881.1249197053103</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>29600</v>
+      </c>
+      <c r="B307">
+        <v>95583.126712650104</v>
+      </c>
+      <c r="C307">
+        <v>-72.599471342505893</v>
+      </c>
+      <c r="D307">
+        <v>-9023</v>
+      </c>
+      <c r="E307">
+        <v>-5049</v>
+      </c>
+      <c r="F307">
+        <v>10339.5807458523</v>
+      </c>
+      <c r="I307">
+        <v>29600</v>
+      </c>
+      <c r="J307">
+        <v>124497.535007336</v>
+      </c>
+      <c r="K307">
+        <v>-73.804394660195101</v>
+      </c>
+      <c r="L307">
+        <v>-7041</v>
+      </c>
+      <c r="M307">
+        <v>-3666</v>
+      </c>
+      <c r="N307">
+        <v>7938.2137159439098</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>29800</v>
+      </c>
+      <c r="B308">
+        <v>95033.585426540594</v>
+      </c>
+      <c r="C308">
+        <v>-72.518604035742001</v>
+      </c>
+      <c r="D308">
+        <v>-9068</v>
+      </c>
+      <c r="E308">
+        <v>-5091</v>
+      </c>
+      <c r="F308">
+        <v>10399.370413635599</v>
+      </c>
+      <c r="I308">
+        <v>29800</v>
+      </c>
+      <c r="J308">
+        <v>123871.274062012</v>
+      </c>
+      <c r="K308">
+        <v>-73.670999241218993</v>
+      </c>
+      <c r="L308">
+        <v>-7068</v>
+      </c>
+      <c r="M308">
+        <v>-3701</v>
+      </c>
+      <c r="N308">
+        <v>7978.3472599279603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>30000</v>
+      </c>
+      <c r="B309">
+        <v>94433.856875722093</v>
+      </c>
+      <c r="C309">
+        <v>-72.344738636070502</v>
+      </c>
+      <c r="D309">
+        <v>-9110</v>
+      </c>
+      <c r="E309">
+        <v>-5151</v>
+      </c>
+      <c r="F309">
+        <v>10465.4145163964</v>
+      </c>
+      <c r="I309">
+        <v>30000</v>
+      </c>
+      <c r="J309">
+        <v>122982.017764202</v>
+      </c>
+      <c r="K309">
+        <v>-73.516051648477998</v>
+      </c>
+      <c r="L309">
+        <v>-7109</v>
+      </c>
+      <c r="M309">
+        <v>-3747</v>
+      </c>
+      <c r="N309">
+        <v>8036.0369586009201</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\Documents\qp\fruit_impedance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\Documents\fruit_impedance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E68D5-1436-4627-86FC-38E847EF761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B7EF9-E98F-4C2B-BA02-6DDA6828674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="4065" windowWidth="21510" windowHeight="10620" xr2:uid="{A64F9C07-BD29-4837-878C-D337D1A3C421}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A64F9C07-BD29-4837-878C-D337D1A3C421}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>Magnitude</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -94,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4393,6 +4397,655 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BAA6-43C0-AAD4-D60486D82B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$312:$I$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$312:$J$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>355622.27495802002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349098.60961395799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341560.786548089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336569.26933341101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331664.584144486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327156.51157241903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322455.78561502497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316774.61829016003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311353.39986599499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306870.86434172798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302450.10273369303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298038.23848495597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>293205.47163662902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>289085.88724483998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285650.62189164001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>281506.57289029198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277604.09297249001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>273684.78169953101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270292.08897492301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266911.52756751102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>263661.64572506002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260275.50215591499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>257031.23079164201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>253655.06280752399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251014.817998446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>247944.08943850599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>245517.32922461099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242479.59929259701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>239464.672622543</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>236726.73257181799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>233965.905879172</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>231711.35071637799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>229100.99027323199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>226516.601732813</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>224189.186997265</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>221914.287665879</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>219714.03353739399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>217277.283579593</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>215037.02946789301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>212920.13584249999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211456.40933979899</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>209260.19618624001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>207188.42867871001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>205184.60370434701</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>203149.12126947101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>200622.60506858601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>199003.489591866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>197437.47605379499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>195584.817207719</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>194023.59947235501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>191922.21477884799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>190581.77693793</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>188721.78963026599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>187003.419651517</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>185400.585556693</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>183724.37262956699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>182232.707728671</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>180888.040579347</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>179201.901028805</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>177617.377176368</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>176195.266284532</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>174937.667636347</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>173520.399053767</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>171922.220284154</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>170769.65449807901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>169412.93698977199</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>168236.11848991501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>166862.622904077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>165627.80948909701</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>164353.25660066699</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>163075.93016719801</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>161942.13525863699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>160752.388369286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>159530.410041033</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158435.877348838</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157175.74659266599</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>155691.33284469999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>155090.99217932101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>154009.25049063499</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>152941.58321154199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>151017.10854517401</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>151007.515001358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>149404.364134904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>148562.435076108</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>147870.23234895701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>146740.43592638001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>145783.75011526799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>144878.27219177899</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>143928.98893002799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>143001.18323127201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>142097.220626875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>141175.72931766001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>140669.64416886901</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>138989.257663886</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>138460.09694902101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>137750.85265582101</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>136528.83786915799</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>135942.59235595199</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>135098.44291690001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>134298.08707576001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>133516.594233526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6884-4997-B503-01F518DA512A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7888,15 +8541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8295,15 +8948,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052D5528-D279-4180-98DC-2932ED2FA6FF}">
-  <dimension ref="A1:O309"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -8344,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -8388,7 +9041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10200</v>
       </c>
@@ -8425,8 +9078,15 @@
       <c r="N3">
         <v>1981.63013703365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <f>J2-J102</f>
+        <v>321537.84829773998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10400</v>
       </c>
@@ -8464,7 +9124,7 @@
         <v>2027.6757630351101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10600</v>
       </c>
@@ -8502,7 +9162,7 @@
         <v>2056.1626881159</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10800</v>
       </c>
@@ -8540,7 +9200,7 @@
         <v>2089.53128715509</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11000</v>
       </c>
@@ -8578,7 +9238,7 @@
         <v>2112.05800109751</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11200</v>
       </c>
@@ -8616,7 +9276,7 @@
         <v>2148.5939588484398</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11400</v>
       </c>
@@ -8654,7 +9314,7 @@
         <v>2189.3900977212802</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11600</v>
       </c>
@@ -8692,7 +9352,7 @@
         <v>2227.72552169247</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11800</v>
       </c>
@@ -8730,7 +9390,7 @@
         <v>2258.4031969513298</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12000</v>
       </c>
@@ -8768,7 +9428,7 @@
         <v>2289.6113207267299</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12200</v>
       </c>
@@ -8806,7 +9466,7 @@
         <v>2332.7925325669198</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12400</v>
       </c>
@@ -8844,7 +9504,7 @@
         <v>2368.8032843611099</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12600</v>
       </c>
@@ -8882,7 +9542,7 @@
         <v>2395.7222293078999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12800</v>
       </c>
@@ -11960,7 +12620,7 @@
         <v>5057.4033851374797</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>29000</v>
       </c>
@@ -11998,7 +12658,7 @@
         <v>5086.7744200033103</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>29200</v>
       </c>
@@ -12036,7 +12696,7 @@
         <v>5110.8245910029</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>29400</v>
       </c>
@@ -12074,7 +12734,7 @@
         <v>5157.60302853952</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>29600</v>
       </c>
@@ -12112,7 +12772,7 @@
         <v>5180.0189188843697</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>29800</v>
       </c>
@@ -12150,7 +12810,7 @@
         <v>5204.4198523946898</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>30000</v>
       </c>
@@ -12188,7 +12848,7 @@
         <v>5237.6052734050099</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -12232,7 +12892,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10000</v>
       </c>
@@ -12271,7 +12931,7 @@
         <v>3719.892472</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10200</v>
       </c>
@@ -12308,8 +12968,12 @@
       <c r="N107">
         <v>3781.699353</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <f>J107-J207</f>
+        <v>261485.834</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10400</v>
       </c>
@@ -12347,7 +13011,7 @@
         <v>3862.1259690000002</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10600</v>
       </c>
@@ -12385,7 +13049,7 @@
         <v>3921.1880849999998</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10800</v>
       </c>
@@ -12423,7 +13087,7 @@
         <v>3983.3891349999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11000</v>
       </c>
@@ -12461,7 +13125,7 @@
         <v>4026.1090399999998</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11200</v>
       </c>
@@ -16115,7 +16779,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10000</v>
       </c>
@@ -16153,7 +16817,7 @@
         <v>2926.9560980650199</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10200</v>
       </c>
@@ -16190,8 +16854,12 @@
       <c r="N210">
         <v>2987.83299399414</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P210">
+        <f>J210-J310</f>
+        <v>330770.84361241199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10400</v>
       </c>
@@ -16229,7 +16897,7 @@
         <v>3054.1029779626001</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10600</v>
       </c>
@@ -16267,7 +16935,7 @@
         <v>3110.3173471528598</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>10800</v>
       </c>
@@ -16305,7 +16973,7 @@
         <v>3152.6994782249699</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11000</v>
       </c>
@@ -16343,7 +17011,7 @@
         <v>3192.3264244121401</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11200</v>
       </c>
@@ -16381,7 +17049,7 @@
         <v>3246.43881815136</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11400</v>
       </c>
@@ -16419,7 +17087,7 @@
         <v>3303.0884032977401</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>11600</v>
       </c>
@@ -16457,7 +17125,7 @@
         <v>3363.87217355238</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11800</v>
       </c>
@@ -16495,7 +17163,7 @@
         <v>3418.9899093153199</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12000</v>
       </c>
@@ -16533,7 +17201,7 @@
         <v>3468.2909335867398</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12200</v>
       </c>
@@ -16571,7 +17239,7 @@
         <v>3525.37912854774</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12400</v>
       </c>
@@ -16609,7 +17277,7 @@
         <v>3575.7762793553002</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12600</v>
       </c>
@@ -16647,7 +17315,7 @@
         <v>3632.6524744324201</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12800</v>
       </c>
@@ -16685,7 +17353,7 @@
         <v>3682.5601149200502</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13000</v>
       </c>
@@ -19763,7 +20431,7 @@
         <v>7790.8767157490001</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>29200</v>
       </c>
@@ -19801,7 +20469,7 @@
         <v>7831.3281121403697</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>29400</v>
       </c>
@@ -19839,7 +20507,7 @@
         <v>7881.1249197053103</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>29600</v>
       </c>
@@ -19877,7 +20545,7 @@
         <v>7938.2137159439098</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>29800</v>
       </c>
@@ -19915,7 +20583,7 @@
         <v>7978.3472599279603</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>30000</v>
       </c>
@@ -19951,6 +20619,2056 @@
       </c>
       <c r="N309">
         <v>8036.0369586009201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I311" t="s">
+        <v>5</v>
+      </c>
+      <c r="J311" t="s">
+        <v>4</v>
+      </c>
+      <c r="K311" t="s">
+        <v>3</v>
+      </c>
+      <c r="L311" t="s">
+        <v>2</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1</v>
+      </c>
+      <c r="N311" t="s">
+        <v>0</v>
+      </c>
+      <c r="O311" s="1">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>10000</v>
+      </c>
+      <c r="J312">
+        <v>355622.27495802002</v>
+      </c>
+      <c r="K312">
+        <v>-84.897546477973805</v>
+      </c>
+      <c r="L312">
+        <v>-2661</v>
+      </c>
+      <c r="M312">
+        <v>-798</v>
+      </c>
+      <c r="N312">
+        <v>2778.0793725161998</v>
+      </c>
+      <c r="O312" t="s">
+        <v>8</v>
+      </c>
+      <c r="P312" s="2">
+        <f>J312-J412</f>
+        <v>222105.68072449401</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>10200</v>
+      </c>
+      <c r="J313">
+        <v>349098.60961395799</v>
+      </c>
+      <c r="K313">
+        <v>-84.916829821762207</v>
+      </c>
+      <c r="L313">
+        <v>-2711</v>
+      </c>
+      <c r="M313">
+        <v>-812</v>
+      </c>
+      <c r="N313">
+        <v>2829.9938162476601</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>10400</v>
+      </c>
+      <c r="J314">
+        <v>341560.786548089</v>
+      </c>
+      <c r="K314">
+        <v>-84.791061393718905</v>
+      </c>
+      <c r="L314">
+        <v>-2769</v>
+      </c>
+      <c r="M314">
+        <v>-836</v>
+      </c>
+      <c r="N314">
+        <v>2892.44827092897</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>10600</v>
+      </c>
+      <c r="J315">
+        <v>336569.26933341101</v>
+      </c>
+      <c r="K315">
+        <v>-84.452258283685893</v>
+      </c>
+      <c r="L315">
+        <v>-2805</v>
+      </c>
+      <c r="M315">
+        <v>-865</v>
+      </c>
+      <c r="N315">
+        <v>2935.3449541748901</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>10800</v>
+      </c>
+      <c r="J316">
+        <v>331664.584144486</v>
+      </c>
+      <c r="K316">
+        <v>-84.226512665149301</v>
+      </c>
+      <c r="L316">
+        <v>-2843</v>
+      </c>
+      <c r="M316">
+        <v>-889</v>
+      </c>
+      <c r="N316">
+        <v>2978.7530948368299</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>11000</v>
+      </c>
+      <c r="J317">
+        <v>327156.51157241903</v>
+      </c>
+      <c r="K317">
+        <v>-84.151950462137407</v>
+      </c>
+      <c r="L317">
+        <v>-2881</v>
+      </c>
+      <c r="M317">
+        <v>-905</v>
+      </c>
+      <c r="N317">
+        <v>3019.79899993361</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>11200</v>
+      </c>
+      <c r="J318">
+        <v>322455.78561502497</v>
+      </c>
+      <c r="K318">
+        <v>-84.2145278697229</v>
+      </c>
+      <c r="L318">
+        <v>-2924</v>
+      </c>
+      <c r="M318">
+        <v>-915</v>
+      </c>
+      <c r="N318">
+        <v>3063.8213067997299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>11400</v>
+      </c>
+      <c r="J319">
+        <v>316774.61829016003</v>
+      </c>
+      <c r="K319">
+        <v>-84.126149871202401</v>
+      </c>
+      <c r="L319">
+        <v>-2975</v>
+      </c>
+      <c r="M319">
+        <v>-936</v>
+      </c>
+      <c r="N319">
+        <v>3118.76914823781</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>11600</v>
+      </c>
+      <c r="J320">
+        <v>311353.39986599499</v>
+      </c>
+      <c r="K320">
+        <v>-84.018171069661093</v>
+      </c>
+      <c r="L320">
+        <v>-3025</v>
+      </c>
+      <c r="M320">
+        <v>-958</v>
+      </c>
+      <c r="N320">
+        <v>3173.07248577778</v>
+      </c>
+    </row>
+    <row r="321" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>11800</v>
+      </c>
+      <c r="J321">
+        <v>306870.86434172798</v>
+      </c>
+      <c r="K321">
+        <v>-83.831276569995296</v>
+      </c>
+      <c r="L321">
+        <v>-3066</v>
+      </c>
+      <c r="M321">
+        <v>-982</v>
+      </c>
+      <c r="N321">
+        <v>3219.4223084273999</v>
+      </c>
+    </row>
+    <row r="322" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>12000</v>
+      </c>
+      <c r="J322">
+        <v>302450.10273369303</v>
+      </c>
+      <c r="K322">
+        <v>-83.727245762196603</v>
+      </c>
+      <c r="L322">
+        <v>-3109</v>
+      </c>
+      <c r="M322">
+        <v>-1002</v>
+      </c>
+      <c r="N322">
+        <v>3266.4789912075098</v>
+      </c>
+    </row>
+    <row r="323" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>12200</v>
+      </c>
+      <c r="J323">
+        <v>298038.23848495597</v>
+      </c>
+      <c r="K323">
+        <v>-83.669716253923397</v>
+      </c>
+      <c r="L323">
+        <v>-3154</v>
+      </c>
+      <c r="M323">
+        <v>-1020</v>
+      </c>
+      <c r="N323">
+        <v>3314.8327257947699</v>
+      </c>
+    </row>
+    <row r="324" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>12400</v>
+      </c>
+      <c r="J324">
+        <v>293205.47163662902</v>
+      </c>
+      <c r="K324">
+        <v>-83.505439674400606</v>
+      </c>
+      <c r="L324">
+        <v>-3203</v>
+      </c>
+      <c r="M324">
+        <v>-1046</v>
+      </c>
+      <c r="N324">
+        <v>3369.4695428212399</v>
+      </c>
+    </row>
+    <row r="325" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>12600</v>
+      </c>
+      <c r="J325">
+        <v>289085.88724483998</v>
+      </c>
+      <c r="K325">
+        <v>-83.309665313513307</v>
+      </c>
+      <c r="L325">
+        <v>-3245</v>
+      </c>
+      <c r="M325">
+        <v>-1072</v>
+      </c>
+      <c r="N325">
+        <v>3417.4857717333698</v>
+      </c>
+    </row>
+    <row r="326" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>12800</v>
+      </c>
+      <c r="J326">
+        <v>285650.62189164001</v>
+      </c>
+      <c r="K326">
+        <v>-83.0982897582617</v>
+      </c>
+      <c r="L326">
+        <v>-3280</v>
+      </c>
+      <c r="M326">
+        <v>-1097</v>
+      </c>
+      <c r="N326">
+        <v>3458.58482619698</v>
+      </c>
+    </row>
+    <row r="327" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>13000</v>
+      </c>
+      <c r="J327">
+        <v>281506.57289029198</v>
+      </c>
+      <c r="K327">
+        <v>-83.083637625272203</v>
+      </c>
+      <c r="L327">
+        <v>-3328</v>
+      </c>
+      <c r="M327">
+        <v>-1114</v>
+      </c>
+      <c r="N327">
+        <v>3509.4985396777101</v>
+      </c>
+    </row>
+    <row r="328" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>13200</v>
+      </c>
+      <c r="J328">
+        <v>277604.09297249001</v>
+      </c>
+      <c r="K328">
+        <v>-83.043910443958097</v>
+      </c>
+      <c r="L328">
+        <v>-3374</v>
+      </c>
+      <c r="M328">
+        <v>-1132</v>
+      </c>
+      <c r="N328">
+        <v>3558.8340787398301</v>
+      </c>
+    </row>
+    <row r="329" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>13400</v>
+      </c>
+      <c r="J329">
+        <v>273684.78169953101</v>
+      </c>
+      <c r="K329">
+        <v>-82.829661906965498</v>
+      </c>
+      <c r="L329">
+        <v>-3418</v>
+      </c>
+      <c r="M329">
+        <v>-1161</v>
+      </c>
+      <c r="N329">
+        <v>3609.7984708290901</v>
+      </c>
+    </row>
+    <row r="330" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>13600</v>
+      </c>
+      <c r="J330">
+        <v>270292.08897492301</v>
+      </c>
+      <c r="K330">
+        <v>-82.640376514209606</v>
+      </c>
+      <c r="L330">
+        <v>-3457</v>
+      </c>
+      <c r="M330">
+        <v>-1187</v>
+      </c>
+      <c r="N330">
+        <v>3655.1084799223099</v>
+      </c>
+    </row>
+    <row r="331" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>13800</v>
+      </c>
+      <c r="J331">
+        <v>266911.52756751102</v>
+      </c>
+      <c r="K331">
+        <v>-82.460802645427407</v>
+      </c>
+      <c r="L331">
+        <v>-3497</v>
+      </c>
+      <c r="M331">
+        <v>-1213</v>
+      </c>
+      <c r="N331">
+        <v>3701.4021667470802</v>
+      </c>
+    </row>
+    <row r="332" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>14000</v>
+      </c>
+      <c r="J332">
+        <v>263661.64572506002</v>
+      </c>
+      <c r="K332">
+        <v>-82.362878100888395</v>
+      </c>
+      <c r="L332">
+        <v>-3538</v>
+      </c>
+      <c r="M332">
+        <v>-1234</v>
+      </c>
+      <c r="N332">
+        <v>3747.02548696963</v>
+      </c>
+    </row>
+    <row r="333" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>14200</v>
+      </c>
+      <c r="J333">
+        <v>260275.50215591499</v>
+      </c>
+      <c r="K333">
+        <v>-82.315777708176995</v>
+      </c>
+      <c r="L333">
+        <v>-3583</v>
+      </c>
+      <c r="M333">
+        <v>-1253</v>
+      </c>
+      <c r="N333">
+        <v>3795.7737024222101</v>
+      </c>
+    </row>
+    <row r="334" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>14400</v>
+      </c>
+      <c r="J334">
+        <v>257031.23079164201</v>
+      </c>
+      <c r="K334">
+        <v>-82.170674249913802</v>
+      </c>
+      <c r="L334">
+        <v>-3625</v>
+      </c>
+      <c r="M334">
+        <v>-1278</v>
+      </c>
+      <c r="N334">
+        <v>3843.6843002515202</v>
+      </c>
+    </row>
+    <row r="335" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>14600</v>
+      </c>
+      <c r="J335">
+        <v>253655.06280752399</v>
+      </c>
+      <c r="K335">
+        <v>-81.983549036072901</v>
+      </c>
+      <c r="L335">
+        <v>-3669</v>
+      </c>
+      <c r="M335">
+        <v>-1307</v>
+      </c>
+      <c r="N335">
+        <v>3894.84402768583</v>
+      </c>
+    </row>
+    <row r="336" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>14800</v>
+      </c>
+      <c r="J336">
+        <v>251014.817998446</v>
+      </c>
+      <c r="K336">
+        <v>-81.871430758837107</v>
+      </c>
+      <c r="L336">
+        <v>-3705</v>
+      </c>
+      <c r="M336">
+        <v>-1328</v>
+      </c>
+      <c r="N336">
+        <v>3935.81109810926</v>
+      </c>
+    </row>
+    <row r="337" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>15000</v>
+      </c>
+      <c r="J337">
+        <v>247944.08943850599</v>
+      </c>
+      <c r="K337">
+        <v>-81.664269822886595</v>
+      </c>
+      <c r="L337">
+        <v>-3746</v>
+      </c>
+      <c r="M337">
+        <v>-1358</v>
+      </c>
+      <c r="N337">
+        <v>3984.5551822003899</v>
+      </c>
+    </row>
+    <row r="338" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>15200</v>
+      </c>
+      <c r="J338">
+        <v>245517.32922461099</v>
+      </c>
+      <c r="K338">
+        <v>-81.579778435763103</v>
+      </c>
+      <c r="L338">
+        <v>-3781</v>
+      </c>
+      <c r="M338">
+        <v>-1377</v>
+      </c>
+      <c r="N338">
+        <v>4023.9396118729201</v>
+      </c>
+    </row>
+    <row r="339" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <v>15400</v>
+      </c>
+      <c r="J339">
+        <v>242479.59929259701</v>
+      </c>
+      <c r="K339">
+        <v>-81.523656667603603</v>
+      </c>
+      <c r="L339">
+        <v>-3827</v>
+      </c>
+      <c r="M339">
+        <v>-1398</v>
+      </c>
+      <c r="N339">
+        <v>4074.3506231054798</v>
+      </c>
+    </row>
+    <row r="340" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <v>15600</v>
+      </c>
+      <c r="J340">
+        <v>239464.672622543</v>
+      </c>
+      <c r="K340">
+        <v>-81.355031111316904</v>
+      </c>
+      <c r="L340">
+        <v>-3871</v>
+      </c>
+      <c r="M340">
+        <v>-1427</v>
+      </c>
+      <c r="N340">
+        <v>4125.6478279174498</v>
+      </c>
+    </row>
+    <row r="341" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <v>15800</v>
+      </c>
+      <c r="J341">
+        <v>236726.73257181799</v>
+      </c>
+      <c r="K341">
+        <v>-81.245316772585099</v>
+      </c>
+      <c r="L341">
+        <v>-3913</v>
+      </c>
+      <c r="M341">
+        <v>-1451</v>
+      </c>
+      <c r="N341">
+        <v>4173.3643502574796</v>
+      </c>
+    </row>
+    <row r="342" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <v>16000</v>
+      </c>
+      <c r="J342">
+        <v>233965.905879172</v>
+      </c>
+      <c r="K342">
+        <v>-81.0443478118153</v>
+      </c>
+      <c r="L342">
+        <v>-3954</v>
+      </c>
+      <c r="M342">
+        <v>-1482</v>
+      </c>
+      <c r="N342">
+        <v>4222.6105669360504</v>
+      </c>
+    </row>
+    <row r="343" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <v>16200</v>
+      </c>
+      <c r="J343">
+        <v>231711.35071637799</v>
+      </c>
+      <c r="K343">
+        <v>-80.949887654864696</v>
+      </c>
+      <c r="L343">
+        <v>-3990</v>
+      </c>
+      <c r="M343">
+        <v>-1503</v>
+      </c>
+      <c r="N343">
+        <v>4263.6966355499499</v>
+      </c>
+    </row>
+    <row r="344" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>16400</v>
+      </c>
+      <c r="J344">
+        <v>229100.99027323199</v>
+      </c>
+      <c r="K344">
+        <v>-80.894861232732495</v>
+      </c>
+      <c r="L344">
+        <v>-4034</v>
+      </c>
+      <c r="M344">
+        <v>-1524</v>
+      </c>
+      <c r="N344">
+        <v>4312.2768927794996</v>
+      </c>
+    </row>
+    <row r="345" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>16600</v>
+      </c>
+      <c r="J345">
+        <v>226516.601732813</v>
+      </c>
+      <c r="K345">
+        <v>-80.745759608373206</v>
+      </c>
+      <c r="L345">
+        <v>-4076</v>
+      </c>
+      <c r="M345">
+        <v>-1552</v>
+      </c>
+      <c r="N345">
+        <v>4361.4768141078102</v>
+      </c>
+    </row>
+    <row r="346" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>16800</v>
+      </c>
+      <c r="J346">
+        <v>224189.186997265</v>
+      </c>
+      <c r="K346">
+        <v>-80.5524198796695</v>
+      </c>
+      <c r="L346">
+        <v>-4113</v>
+      </c>
+      <c r="M346">
+        <v>-1582</v>
+      </c>
+      <c r="N346">
+        <v>4406.7553823646704</v>
+      </c>
+    </row>
+    <row r="347" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <v>17000</v>
+      </c>
+      <c r="J347">
+        <v>221914.287665879</v>
+      </c>
+      <c r="K347">
+        <v>-80.403664683136398</v>
+      </c>
+      <c r="L347">
+        <v>-4151</v>
+      </c>
+      <c r="M347">
+        <v>-1609</v>
+      </c>
+      <c r="N347">
+        <v>4451.9301432075499</v>
+      </c>
+    </row>
+    <row r="348" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>17200</v>
+      </c>
+      <c r="J348">
+        <v>219714.03353739399</v>
+      </c>
+      <c r="K348">
+        <v>-80.418871499575701</v>
+      </c>
+      <c r="L348">
+        <v>-4193</v>
+      </c>
+      <c r="M348">
+        <v>-1624</v>
+      </c>
+      <c r="N348">
+        <v>4496.5125375117104</v>
+      </c>
+    </row>
+    <row r="349" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <v>17400</v>
+      </c>
+      <c r="J349">
+        <v>217277.283579593</v>
+      </c>
+      <c r="K349">
+        <v>-80.313608317688093</v>
+      </c>
+      <c r="L349">
+        <v>-4237</v>
+      </c>
+      <c r="M349">
+        <v>-1650</v>
+      </c>
+      <c r="N349">
+        <v>4546.9406198014103</v>
+      </c>
+    </row>
+    <row r="350" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>17600</v>
+      </c>
+      <c r="J350">
+        <v>215037.02946789301</v>
+      </c>
+      <c r="K350">
+        <v>-79.967772697680104</v>
+      </c>
+      <c r="L350">
+        <v>-4271</v>
+      </c>
+      <c r="M350">
+        <v>-1693</v>
+      </c>
+      <c r="N350">
+        <v>4594.3106120505199</v>
+      </c>
+    </row>
+    <row r="351" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <v>17800</v>
+      </c>
+      <c r="J351">
+        <v>212920.13584249999</v>
+      </c>
+      <c r="K351">
+        <v>-79.952259128190207</v>
+      </c>
+      <c r="L351">
+        <v>-4313</v>
+      </c>
+      <c r="M351">
+        <v>-1711</v>
+      </c>
+      <c r="N351">
+        <v>4639.9881465365797</v>
+      </c>
+    </row>
+    <row r="352" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <v>18000</v>
+      </c>
+      <c r="J352">
+        <v>211456.40933979899</v>
+      </c>
+      <c r="K352">
+        <v>-79.659651482180394</v>
+      </c>
+      <c r="L352">
+        <v>-4334</v>
+      </c>
+      <c r="M352">
+        <v>-1745</v>
+      </c>
+      <c r="N352">
+        <v>4672.1066982679204</v>
+      </c>
+    </row>
+    <row r="353" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <v>18200</v>
+      </c>
+      <c r="J353">
+        <v>209260.19618624001</v>
+      </c>
+      <c r="K353">
+        <v>-79.6114202806409</v>
+      </c>
+      <c r="L353">
+        <v>-4378</v>
+      </c>
+      <c r="M353">
+        <v>-1767</v>
+      </c>
+      <c r="N353">
+        <v>4721.1410696991497</v>
+      </c>
+    </row>
+    <row r="354" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <v>18400</v>
+      </c>
+      <c r="J354">
+        <v>207188.42867871001</v>
+      </c>
+      <c r="K354">
+        <v>-79.490461017606705</v>
+      </c>
+      <c r="L354">
+        <v>-4418</v>
+      </c>
+      <c r="M354">
+        <v>-1794</v>
+      </c>
+      <c r="N354">
+        <v>4768.3498193819596</v>
+      </c>
+    </row>
+    <row r="355" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>18600</v>
+      </c>
+      <c r="J355">
+        <v>205184.60370434701</v>
+      </c>
+      <c r="K355">
+        <v>-79.612678010480295</v>
+      </c>
+      <c r="L355">
+        <v>-4465</v>
+      </c>
+      <c r="M355">
+        <v>-1802</v>
+      </c>
+      <c r="N355">
+        <v>4814.9173409311998</v>
+      </c>
+    </row>
+    <row r="356" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>18800</v>
+      </c>
+      <c r="J356">
+        <v>203149.12126947101</v>
+      </c>
+      <c r="K356">
+        <v>-79.308136161252506</v>
+      </c>
+      <c r="L356">
+        <v>-4500</v>
+      </c>
+      <c r="M356">
+        <v>-1844</v>
+      </c>
+      <c r="N356">
+        <v>4863.16111186952</v>
+      </c>
+    </row>
+    <row r="357" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>19000</v>
+      </c>
+      <c r="J357">
+        <v>200622.60506858601</v>
+      </c>
+      <c r="K357">
+        <v>-79.134785600111599</v>
+      </c>
+      <c r="L357">
+        <v>-4551</v>
+      </c>
+      <c r="M357">
+        <v>-1881</v>
+      </c>
+      <c r="N357">
+        <v>4924.4047356000301</v>
+      </c>
+    </row>
+    <row r="358" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I358">
+        <v>19200</v>
+      </c>
+      <c r="J358">
+        <v>199003.489591866</v>
+      </c>
+      <c r="K358">
+        <v>-78.8635777399425</v>
+      </c>
+      <c r="L358">
+        <v>-4579</v>
+      </c>
+      <c r="M358">
+        <v>-1918</v>
+      </c>
+      <c r="N358">
+        <v>4964.4702637844503</v>
+      </c>
+    </row>
+    <row r="359" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <v>19400</v>
+      </c>
+      <c r="J359">
+        <v>197437.47605379499</v>
+      </c>
+      <c r="K359">
+        <v>-79.002708085142203</v>
+      </c>
+      <c r="L359">
+        <v>-4620</v>
+      </c>
+      <c r="M359">
+        <v>-1922</v>
+      </c>
+      <c r="N359">
+        <v>5003.8469201205598</v>
+      </c>
+    </row>
+    <row r="360" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <v>19600</v>
+      </c>
+      <c r="J360">
+        <v>195584.817207719</v>
+      </c>
+      <c r="K360">
+        <v>-78.833139418349205</v>
+      </c>
+      <c r="L360">
+        <v>-4658</v>
+      </c>
+      <c r="M360">
+        <v>-1954</v>
+      </c>
+      <c r="N360">
+        <v>5051.2453909902297</v>
+      </c>
+    </row>
+    <row r="361" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <v>19800</v>
+      </c>
+      <c r="J361">
+        <v>194023.59947235501</v>
+      </c>
+      <c r="K361">
+        <v>-78.732102500748198</v>
+      </c>
+      <c r="L361">
+        <v>-4692</v>
+      </c>
+      <c r="M361">
+        <v>-1978</v>
+      </c>
+      <c r="N361">
+        <v>5091.8904151601701</v>
+      </c>
+    </row>
+    <row r="362" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <v>20000</v>
+      </c>
+      <c r="J362">
+        <v>191922.21477884799</v>
+      </c>
+      <c r="K362">
+        <v>-78.607115591197598</v>
+      </c>
+      <c r="L362">
+        <v>-4739</v>
+      </c>
+      <c r="M362">
+        <v>-2010</v>
+      </c>
+      <c r="N362">
+        <v>5147.6422758385197</v>
+      </c>
+    </row>
+    <row r="363" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <v>20200</v>
+      </c>
+      <c r="J363">
+        <v>190581.77693793</v>
+      </c>
+      <c r="K363">
+        <v>-78.428556303145101</v>
+      </c>
+      <c r="L363">
+        <v>-4766</v>
+      </c>
+      <c r="M363">
+        <v>-2039</v>
+      </c>
+      <c r="N363">
+        <v>5183.8477022381703</v>
+      </c>
+    </row>
+    <row r="364" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <v>20400</v>
+      </c>
+      <c r="J364">
+        <v>188721.78963026599</v>
+      </c>
+      <c r="K364">
+        <v>-78.262931753133799</v>
+      </c>
+      <c r="L364">
+        <v>-4807</v>
+      </c>
+      <c r="M364">
+        <v>-2073</v>
+      </c>
+      <c r="N364">
+        <v>5234.9382040287701</v>
+      </c>
+    </row>
+    <row r="365" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <v>20600</v>
+      </c>
+      <c r="J365">
+        <v>187003.419651517</v>
+      </c>
+      <c r="K365">
+        <v>-78.121703772477005</v>
+      </c>
+      <c r="L365">
+        <v>-4846</v>
+      </c>
+      <c r="M365">
+        <v>-2104</v>
+      </c>
+      <c r="N365">
+        <v>5283.0419267690804</v>
+      </c>
+    </row>
+    <row r="366" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <v>20800</v>
+      </c>
+      <c r="J366">
+        <v>185400.585556693</v>
+      </c>
+      <c r="K366">
+        <v>-77.936244050417201</v>
+      </c>
+      <c r="L366">
+        <v>-4881</v>
+      </c>
+      <c r="M366">
+        <v>-2138</v>
+      </c>
+      <c r="N366">
+        <v>5328.7151359403697</v>
+      </c>
+    </row>
+    <row r="367" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <v>21000</v>
+      </c>
+      <c r="J367">
+        <v>183724.37262956699</v>
+      </c>
+      <c r="K367">
+        <v>-77.895595098922698</v>
+      </c>
+      <c r="L367">
+        <v>-4924</v>
+      </c>
+      <c r="M367">
+        <v>-2161</v>
+      </c>
+      <c r="N367">
+        <v>5377.33177328682</v>
+      </c>
+    </row>
+    <row r="368" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <v>21200</v>
+      </c>
+      <c r="J368">
+        <v>182232.707728671</v>
+      </c>
+      <c r="K368">
+        <v>-77.730317446660095</v>
+      </c>
+      <c r="L368">
+        <v>-4958</v>
+      </c>
+      <c r="M368">
+        <v>-2193</v>
+      </c>
+      <c r="N368">
+        <v>5421.34789512719</v>
+      </c>
+    </row>
+    <row r="369" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I369">
+        <v>21400</v>
+      </c>
+      <c r="J369">
+        <v>180888.040579347</v>
+      </c>
+      <c r="K369">
+        <v>-77.630505717179005</v>
+      </c>
+      <c r="L369">
+        <v>-4991</v>
+      </c>
+      <c r="M369">
+        <v>-2218</v>
+      </c>
+      <c r="N369">
+        <v>5461.6485606453998</v>
+      </c>
+    </row>
+    <row r="370" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <v>21600</v>
+      </c>
+      <c r="J370">
+        <v>179201.901028805</v>
+      </c>
+      <c r="K370">
+        <v>-77.503858557405195</v>
+      </c>
+      <c r="L370">
+        <v>-5033</v>
+      </c>
+      <c r="M370">
+        <v>-2250</v>
+      </c>
+      <c r="N370">
+        <v>5513.0380916514596</v>
+      </c>
+    </row>
+    <row r="371" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <v>21800</v>
+      </c>
+      <c r="J371">
+        <v>177617.377176368</v>
+      </c>
+      <c r="K371">
+        <v>-77.380497218054899</v>
+      </c>
+      <c r="L371">
+        <v>-5073</v>
+      </c>
+      <c r="M371">
+        <v>-2281</v>
+      </c>
+      <c r="N371">
+        <v>5562.2198805872504</v>
+      </c>
+    </row>
+    <row r="372" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <v>22000</v>
+      </c>
+      <c r="J372">
+        <v>176195.266284532</v>
+      </c>
+      <c r="K372">
+        <v>-77.183273907764104</v>
+      </c>
+      <c r="L372">
+        <v>-5106</v>
+      </c>
+      <c r="M372">
+        <v>-2317</v>
+      </c>
+      <c r="N372">
+        <v>5607.1137851839603</v>
+      </c>
+    </row>
+    <row r="373" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <v>22200</v>
+      </c>
+      <c r="J373">
+        <v>174937.667636347</v>
+      </c>
+      <c r="K373">
+        <v>-77.067982904621303</v>
+      </c>
+      <c r="L373">
+        <v>-5138</v>
+      </c>
+      <c r="M373">
+        <v>-2344</v>
+      </c>
+      <c r="N373">
+        <v>5647.4224208925598</v>
+      </c>
+    </row>
+    <row r="374" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <v>22400</v>
+      </c>
+      <c r="J374">
+        <v>173520.399053767</v>
+      </c>
+      <c r="K374">
+        <v>-76.947859724524506</v>
+      </c>
+      <c r="L374">
+        <v>-5175</v>
+      </c>
+      <c r="M374">
+        <v>-2374</v>
+      </c>
+      <c r="N374">
+        <v>5693.54906890245</v>
+      </c>
+    </row>
+    <row r="375" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I375">
+        <v>22600</v>
+      </c>
+      <c r="J375">
+        <v>171922.220284154</v>
+      </c>
+      <c r="K375">
+        <v>-76.849846262581593</v>
+      </c>
+      <c r="L375">
+        <v>-5219</v>
+      </c>
+      <c r="M375">
+        <v>-2405</v>
+      </c>
+      <c r="N375">
+        <v>5746.47596357977</v>
+      </c>
+    </row>
+    <row r="376" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <v>22800</v>
+      </c>
+      <c r="J376">
+        <v>170769.65449807901</v>
+      </c>
+      <c r="K376">
+        <v>-76.655939057899104</v>
+      </c>
+      <c r="L376">
+        <v>-5246</v>
+      </c>
+      <c r="M376">
+        <v>-2439</v>
+      </c>
+      <c r="N376">
+        <v>5785.2603225784096</v>
+      </c>
+    </row>
+    <row r="377" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I377">
+        <v>23000</v>
+      </c>
+      <c r="J377">
+        <v>169412.93698977199</v>
+      </c>
+      <c r="K377">
+        <v>-76.585841985088393</v>
+      </c>
+      <c r="L377">
+        <v>-5285</v>
+      </c>
+      <c r="M377">
+        <v>-2465</v>
+      </c>
+      <c r="N377">
+        <v>5831.5906920839398</v>
+      </c>
+    </row>
+    <row r="378" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I378">
+        <v>23200</v>
+      </c>
+      <c r="J378">
+        <v>168236.11848991501</v>
+      </c>
+      <c r="K378">
+        <v>-76.448421995825697</v>
+      </c>
+      <c r="L378">
+        <v>-5316</v>
+      </c>
+      <c r="M378">
+        <v>-2495</v>
+      </c>
+      <c r="N378">
+        <v>5872.38290645288</v>
+      </c>
+    </row>
+    <row r="379" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <v>23400</v>
+      </c>
+      <c r="J379">
+        <v>166862.622904077</v>
+      </c>
+      <c r="K379">
+        <v>-76.272306184614294</v>
+      </c>
+      <c r="L379">
+        <v>-5352</v>
+      </c>
+      <c r="M379">
+        <v>-2532</v>
+      </c>
+      <c r="N379">
+        <v>5920.7202264589396</v>
+      </c>
+    </row>
+    <row r="380" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I380">
+        <v>23600</v>
+      </c>
+      <c r="J380">
+        <v>165627.80948909701</v>
+      </c>
+      <c r="K380">
+        <v>-76.207223499676999</v>
+      </c>
+      <c r="L380">
+        <v>-5389</v>
+      </c>
+      <c r="M380">
+        <v>-2557</v>
+      </c>
+      <c r="N380">
+        <v>5964.8612724857203</v>
+      </c>
+    </row>
+    <row r="381" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I381">
+        <v>23800</v>
+      </c>
+      <c r="J381">
+        <v>164353.25660066699</v>
+      </c>
+      <c r="K381">
+        <v>-76.078753477686405</v>
+      </c>
+      <c r="L381">
+        <v>-5425</v>
+      </c>
+      <c r="M381">
+        <v>-2589</v>
+      </c>
+      <c r="N381">
+        <v>6011.1185315213997</v>
+      </c>
+    </row>
+    <row r="382" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <v>24000</v>
+      </c>
+      <c r="J382">
+        <v>163075.93016719801</v>
+      </c>
+      <c r="K382">
+        <v>-75.892903503214498</v>
+      </c>
+      <c r="L382">
+        <v>-5459</v>
+      </c>
+      <c r="M382">
+        <v>-2627</v>
+      </c>
+      <c r="N382">
+        <v>6058.2018784454503</v>
+      </c>
+    </row>
+    <row r="383" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <v>24200</v>
+      </c>
+      <c r="J383">
+        <v>161942.13525863699</v>
+      </c>
+      <c r="K383">
+        <v>-75.844868624549093</v>
+      </c>
+      <c r="L383">
+        <v>-5495</v>
+      </c>
+      <c r="M383">
+        <v>-2650</v>
+      </c>
+      <c r="N383">
+        <v>6100.6167720977201</v>
+      </c>
+    </row>
+    <row r="384" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <v>24400</v>
+      </c>
+      <c r="J384">
+        <v>160752.388369286</v>
+      </c>
+      <c r="K384">
+        <v>-75.830511432643405</v>
+      </c>
+      <c r="L384">
+        <v>-5535</v>
+      </c>
+      <c r="M384">
+        <v>-2671</v>
+      </c>
+      <c r="N384">
+        <v>6145.7681375072998</v>
+      </c>
+    </row>
+    <row r="385" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <v>24600</v>
+      </c>
+      <c r="J385">
+        <v>159530.410041033</v>
+      </c>
+      <c r="K385">
+        <v>-75.567845644374401</v>
+      </c>
+      <c r="L385">
+        <v>-5565</v>
+      </c>
+      <c r="M385">
+        <v>-2717</v>
+      </c>
+      <c r="N385">
+        <v>6192.8437732595803</v>
+      </c>
+    </row>
+    <row r="386" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I386">
+        <v>24800</v>
+      </c>
+      <c r="J386">
+        <v>158435.877348838</v>
+      </c>
+      <c r="K386">
+        <v>-75.391534721731006</v>
+      </c>
+      <c r="L386">
+        <v>-5595</v>
+      </c>
+      <c r="M386">
+        <v>-2753</v>
+      </c>
+      <c r="N386">
+        <v>6235.6261914903098</v>
+      </c>
+    </row>
+    <row r="387" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I387">
+        <v>25000</v>
+      </c>
+      <c r="J387">
+        <v>157175.74659266599</v>
+      </c>
+      <c r="K387">
+        <v>-75.209256908593304</v>
+      </c>
+      <c r="L387">
+        <v>-5631</v>
+      </c>
+      <c r="M387">
+        <v>-2793</v>
+      </c>
+      <c r="N387">
+        <v>6285.6193012303902</v>
+      </c>
+    </row>
+    <row r="388" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I388">
+        <v>25200</v>
+      </c>
+      <c r="J388">
+        <v>155691.33284469999</v>
+      </c>
+      <c r="K388">
+        <v>-75.215600489088899</v>
+      </c>
+      <c r="L388">
+        <v>-5685</v>
+      </c>
+      <c r="M388">
+        <v>-2819</v>
+      </c>
+      <c r="N388">
+        <v>6345.5485184497602</v>
+      </c>
+    </row>
+    <row r="389" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I389">
+        <v>25400</v>
+      </c>
+      <c r="J389">
+        <v>155090.99217932101</v>
+      </c>
+      <c r="K389">
+        <v>-74.993633606445499</v>
+      </c>
+      <c r="L389">
+        <v>-5696</v>
+      </c>
+      <c r="M389">
+        <v>-2852</v>
+      </c>
+      <c r="N389">
+        <v>6370.1114589934796</v>
+      </c>
+    </row>
+    <row r="390" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <v>25600</v>
+      </c>
+      <c r="J390">
+        <v>154009.25049063499</v>
+      </c>
+      <c r="K390">
+        <v>-74.874026078546507</v>
+      </c>
+      <c r="L390">
+        <v>-5730</v>
+      </c>
+      <c r="M390">
+        <v>-2884</v>
+      </c>
+      <c r="N390">
+        <v>6414.8543241448597</v>
+      </c>
+    </row>
+    <row r="391" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <v>25800</v>
+      </c>
+      <c r="J391">
+        <v>152941.58321154199</v>
+      </c>
+      <c r="K391">
+        <v>-74.736242704672904</v>
+      </c>
+      <c r="L391">
+        <v>-5763</v>
+      </c>
+      <c r="M391">
+        <v>-2918</v>
+      </c>
+      <c r="N391">
+        <v>6459.6356708408903</v>
+      </c>
+    </row>
+    <row r="392" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I392">
+        <v>26000</v>
+      </c>
+      <c r="J392">
+        <v>151017.10854517401</v>
+      </c>
+      <c r="K392">
+        <v>-74.688967410499103</v>
+      </c>
+      <c r="L392">
+        <v>-5834</v>
+      </c>
+      <c r="M392">
+        <v>-2960</v>
+      </c>
+      <c r="N392">
+        <v>6541.9535308652303</v>
+      </c>
+    </row>
+    <row r="393" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I393">
+        <v>26200</v>
+      </c>
+      <c r="J393">
+        <v>151007.515001358</v>
+      </c>
+      <c r="K393">
+        <v>-74.7399045850063</v>
+      </c>
+      <c r="L393">
+        <v>-5837</v>
+      </c>
+      <c r="M393">
+        <v>-2955</v>
+      </c>
+      <c r="N393">
+        <v>6542.3691427494396</v>
+      </c>
+    </row>
+    <row r="394" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I394">
+        <v>26400</v>
+      </c>
+      <c r="J394">
+        <v>149404.364134904</v>
+      </c>
+      <c r="K394">
+        <v>-74.308926760257506</v>
+      </c>
+      <c r="L394">
+        <v>-5877</v>
+      </c>
+      <c r="M394">
+        <v>-3031</v>
+      </c>
+      <c r="N394">
+        <v>6612.5706045380002</v>
+      </c>
+    </row>
+    <row r="395" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <v>26600</v>
+      </c>
+      <c r="J395">
+        <v>148562.435076108</v>
+      </c>
+      <c r="K395">
+        <v>-74.0971695589907</v>
+      </c>
+      <c r="L395">
+        <v>-5899</v>
+      </c>
+      <c r="M395">
+        <v>-3070</v>
+      </c>
+      <c r="N395">
+        <v>6650.0451878164004</v>
+      </c>
+    </row>
+    <row r="396" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I396">
+        <v>26800</v>
+      </c>
+      <c r="J396">
+        <v>147870.23234895701</v>
+      </c>
+      <c r="K396">
+        <v>-74.197387314046196</v>
+      </c>
+      <c r="L396">
+        <v>-5932</v>
+      </c>
+      <c r="M396">
+        <v>-3074</v>
+      </c>
+      <c r="N396">
+        <v>6681.1750463522503</v>
+      </c>
+    </row>
+    <row r="397" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <v>27000</v>
+      </c>
+      <c r="J397">
+        <v>146740.43592638001</v>
+      </c>
+      <c r="K397">
+        <v>-73.963914976275106</v>
+      </c>
+      <c r="L397">
+        <v>-5965</v>
+      </c>
+      <c r="M397">
+        <v>-3122</v>
+      </c>
+      <c r="N397">
+        <v>6732.6153165021997</v>
+      </c>
+    </row>
+    <row r="398" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I398">
+        <v>27200</v>
+      </c>
+      <c r="J398">
+        <v>145783.75011526799</v>
+      </c>
+      <c r="K398">
+        <v>-73.815785247421999</v>
+      </c>
+      <c r="L398">
+        <v>-5996</v>
+      </c>
+      <c r="M398">
+        <v>-3158</v>
+      </c>
+      <c r="N398">
+        <v>6776.7971786087901</v>
+      </c>
+    </row>
+    <row r="399" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I399">
+        <v>27400</v>
+      </c>
+      <c r="J399">
+        <v>144878.27219177899</v>
+      </c>
+      <c r="K399">
+        <v>-73.699271865301995</v>
+      </c>
+      <c r="L399">
+        <v>-6027</v>
+      </c>
+      <c r="M399">
+        <v>-3190</v>
+      </c>
+      <c r="N399">
+        <v>6819.1516334511898</v>
+      </c>
+    </row>
+    <row r="400" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I400">
+        <v>27600</v>
+      </c>
+      <c r="J400">
+        <v>143928.98893002799</v>
+      </c>
+      <c r="K400">
+        <v>-73.614615016974696</v>
+      </c>
+      <c r="L400">
+        <v>-6062</v>
+      </c>
+      <c r="M400">
+        <v>-3220</v>
+      </c>
+      <c r="N400">
+        <v>6864.12732982132</v>
+      </c>
+    </row>
+    <row r="401" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <v>27800</v>
+      </c>
+      <c r="J401">
+        <v>143001.18323127201</v>
+      </c>
+      <c r="K401">
+        <v>-73.397392386662105</v>
+      </c>
+      <c r="L401">
+        <v>-6089</v>
+      </c>
+      <c r="M401">
+        <v>-3264</v>
+      </c>
+      <c r="N401">
+        <v>6908.6624609977898</v>
+      </c>
+    </row>
+    <row r="402" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I402">
+        <v>28000</v>
+      </c>
+      <c r="J402">
+        <v>142097.220626875</v>
+      </c>
+      <c r="K402">
+        <v>-73.3671325287429</v>
+      </c>
+      <c r="L402">
+        <v>-6126</v>
+      </c>
+      <c r="M402">
+        <v>-3288</v>
+      </c>
+      <c r="N402">
+        <v>6952.6124586373999</v>
+      </c>
+    </row>
+    <row r="403" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <v>28200</v>
+      </c>
+      <c r="J403">
+        <v>141175.72931766001</v>
+      </c>
+      <c r="K403">
+        <v>-73.194730339486895</v>
+      </c>
+      <c r="L403">
+        <v>-6156</v>
+      </c>
+      <c r="M403">
+        <v>-3328</v>
+      </c>
+      <c r="N403">
+        <v>6997.99399828265</v>
+      </c>
+    </row>
+    <row r="404" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I404">
+        <v>28400</v>
+      </c>
+      <c r="J404">
+        <v>140669.64416886901</v>
+      </c>
+      <c r="K404">
+        <v>-73.055279839175796</v>
+      </c>
+      <c r="L404">
+        <v>-6170</v>
+      </c>
+      <c r="M404">
+        <v>-3355</v>
+      </c>
+      <c r="N404">
+        <v>7023.1705803006098</v>
+      </c>
+    </row>
+    <row r="405" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I405">
+        <v>28600</v>
+      </c>
+      <c r="J405">
+        <v>138989.257663886</v>
+      </c>
+      <c r="K405">
+        <v>-72.977831474607996</v>
+      </c>
+      <c r="L405">
+        <v>-6240</v>
+      </c>
+      <c r="M405">
+        <v>-3404</v>
+      </c>
+      <c r="N405">
+        <v>7108.0810349910898</v>
+      </c>
+    </row>
+    <row r="406" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <v>28800</v>
+      </c>
+      <c r="J406">
+        <v>138460.09694902101</v>
+      </c>
+      <c r="K406">
+        <v>-72.813139761160699</v>
+      </c>
+      <c r="L406">
+        <v>-6254</v>
+      </c>
+      <c r="M406">
+        <v>-3435</v>
+      </c>
+      <c r="N406">
+        <v>7135.2463867759998</v>
+      </c>
+    </row>
+    <row r="407" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I407">
+        <v>29000</v>
+      </c>
+      <c r="J407">
+        <v>137750.85265582101</v>
+      </c>
+      <c r="K407">
+        <v>-72.627821715531297</v>
+      </c>
+      <c r="L407">
+        <v>-6275</v>
+      </c>
+      <c r="M407">
+        <v>-3473</v>
+      </c>
+      <c r="N407">
+        <v>7171.9839654031603</v>
+      </c>
+    </row>
+    <row r="408" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I408">
+        <v>29200</v>
+      </c>
+      <c r="J408">
+        <v>136528.83786915799</v>
+      </c>
+      <c r="K408">
+        <v>-72.510881286090296</v>
+      </c>
+      <c r="L408">
+        <v>-6324</v>
+      </c>
+      <c r="M408">
+        <v>-3517</v>
+      </c>
+      <c r="N408">
+        <v>7236.1775130243996</v>
+      </c>
+    </row>
+    <row r="409" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <v>29400</v>
+      </c>
+      <c r="J409">
+        <v>135942.59235595199</v>
+      </c>
+      <c r="K409">
+        <v>-72.376982376947495</v>
+      </c>
+      <c r="L409">
+        <v>-6343</v>
+      </c>
+      <c r="M409">
+        <v>-3547</v>
+      </c>
+      <c r="N409">
+        <v>7267.3831603954904</v>
+      </c>
+    </row>
+    <row r="410" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I410">
+        <v>29600</v>
+      </c>
+      <c r="J410">
+        <v>135098.44291690001</v>
+      </c>
+      <c r="K410">
+        <v>-72.270669242144706</v>
+      </c>
+      <c r="L410">
+        <v>-6376</v>
+      </c>
+      <c r="M410">
+        <v>-3581</v>
+      </c>
+      <c r="N410">
+        <v>7312.7926949968996</v>
+      </c>
+    </row>
+    <row r="411" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I411">
+        <v>29800</v>
+      </c>
+      <c r="J411">
+        <v>134298.08707576001</v>
+      </c>
+      <c r="K411">
+        <v>-72.175409899143702</v>
+      </c>
+      <c r="L411">
+        <v>-6408</v>
+      </c>
+      <c r="M411">
+        <v>-3613</v>
+      </c>
+      <c r="N411">
+        <v>7356.3736310766599</v>
+      </c>
+    </row>
+    <row r="412" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <v>30000</v>
+      </c>
+      <c r="J412">
+        <v>133516.594233526</v>
+      </c>
+      <c r="K412">
+        <v>-71.9631561326282</v>
+      </c>
+      <c r="L412">
+        <v>-6432</v>
+      </c>
+      <c r="M412">
+        <v>-3658</v>
+      </c>
+      <c r="N412">
+        <v>7399.4315997919703</v>
       </c>
     </row>
   </sheetData>
